--- a/raw_game_pulls/6200877_Play-By-Play for Howard vs South Carolina St..xlsx
+++ b/raw_game_pulls/6200877_Play-By-Play for Howard vs South Carolina St..xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdona\repos\ncaa_2024\raw_game_pulls\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5949885-B522-4381-983A-15BB4A68C25F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -706,105 +712,42 @@
     <t>00:06</t>
   </si>
   <si>
-    <t>3 Pointer MISSED by SCSt's Croskey, Omar</t>
-  </si>
-  <si>
     <t>HOW Defensive REBOUND by Warfield, Isiah</t>
   </si>
   <si>
     <t>Layup MISSED by HOW's Campbell, Dom</t>
   </si>
   <si>
-    <t>SCSt Defensive REBOUND by Croskey, Omar</t>
-  </si>
-  <si>
-    <t>Jumper GOOD by SCSt's Teal, Michael</t>
-  </si>
-  <si>
     <t>3 Pointer GOOD by HOW's Dockery, Marcus</t>
   </si>
   <si>
     <t>HOW Assist by Warfield, Isiah</t>
   </si>
   <si>
-    <t>SCSt Turnover by team</t>
-  </si>
-  <si>
-    <t>Subbing out for SCSt - James, Dallas</t>
-  </si>
-  <si>
-    <t>Subbing in for SCSt - Jones, Drayton</t>
-  </si>
-  <si>
-    <t>Subbing out for SCSt - Mccarty, Caleb</t>
-  </si>
-  <si>
-    <t>Subbing in for SCSt - Everett, Davion</t>
-  </si>
-  <si>
     <t>Jumper MISSED by HOW's Dockery, Marcus</t>
   </si>
   <si>
-    <t>SCSt Defensive REBOUND by Everett, Davion</t>
-  </si>
-  <si>
     <t>Foul on HOW's Harris, Bryce</t>
   </si>
   <si>
-    <t>Free Throw GOOD by SCSt's Jones, Drayton</t>
-  </si>
-  <si>
-    <t>Foul on SCSt's Croskey, Omar</t>
-  </si>
-  <si>
     <t>HOW Assist by Towns, Seth</t>
   </si>
   <si>
-    <t>Jumper MISSED by SCSt's Teal, Michael</t>
-  </si>
-  <si>
-    <t>SCSt Offensive REBOUND by Everett, Davion</t>
-  </si>
-  <si>
-    <t>3 Pointer GOOD by SCSt's Brown, Raquan</t>
-  </si>
-  <si>
-    <t>SCSt Assist by Everett, Davion</t>
-  </si>
-  <si>
     <t>3 Pointer GOOD by HOW's Harris, Bryce</t>
   </si>
   <si>
     <t>HOW Turnover by Towns, Seth</t>
   </si>
   <si>
-    <t>SCSt Steal by Croskey, Omar</t>
-  </si>
-  <si>
     <t>Foul on HOW's Campbell, Dom</t>
   </si>
   <si>
-    <t>Subbing out for SCSt - Croskey, Omar</t>
-  </si>
-  <si>
-    <t>Subbing in for SCSt - Taylor, Mitchell</t>
-  </si>
-  <si>
-    <t>Subbing out for SCSt - Teal, Michael</t>
-  </si>
-  <si>
-    <t>Subbing in for SCSt - Simpson, Jordan</t>
-  </si>
-  <si>
     <t>Subbing out for HOW - Warfield, Isiah</t>
   </si>
   <si>
     <t>Subbing in for HOW - Hairston, Jordan</t>
   </si>
   <si>
-    <t>Jumper MISSED by SCSt's Brown, Raquan</t>
-  </si>
-  <si>
     <t>HOW Defensive REBOUND by team</t>
   </si>
   <si>
@@ -814,75 +757,36 @@
     <t>Subbing in for HOW - Odom, Shy</t>
   </si>
   <si>
-    <t>Foul on SCSt's Everett, Davion</t>
-  </si>
-  <si>
     <t>HOW Turnover by Harris, Bryce</t>
   </si>
   <si>
     <t>Media timeout</t>
   </si>
   <si>
-    <t>SCSt Turnover by Taylor, Mitchell</t>
-  </si>
-  <si>
     <t>Layup GOOD by HOW's Odom, Shy</t>
   </si>
   <si>
     <t>HOW Assist by Harris, Bryce</t>
   </si>
   <si>
-    <t>Jumper MISSED by SCSt's Taylor, Mitchell</t>
-  </si>
-  <si>
     <t>HOW Block by Odom, Shy</t>
   </si>
   <si>
-    <t>Jumper GOOD by SCSt's Jones, Drayton</t>
-  </si>
-  <si>
     <t>3 Pointer MISSED by HOW's Towns, Seth</t>
   </si>
   <si>
     <t>HOW Offensive REBOUND by Harris, Bryce</t>
   </si>
   <si>
-    <t>Foul on SCSt's Brown, Raquan</t>
-  </si>
-  <si>
     <t>Subbing out for HOW - Towns, Seth</t>
   </si>
   <si>
     <t>Subbing in for HOW - Okojie, Ose</t>
   </si>
   <si>
-    <t>Subbing out for SCSt - Brown, Raquan</t>
-  </si>
-  <si>
-    <t>Subbing out for SCSt - Jones, Drayton</t>
-  </si>
-  <si>
-    <t>Subbing in for SCSt - Taylor, Atiba</t>
-  </si>
-  <si>
-    <t>Subbing in for SCSt - Mccarty, Caleb</t>
-  </si>
-  <si>
     <t>3 Pointer MISSED by HOW's Dockery, Marcus</t>
   </si>
   <si>
-    <t>SCSt Defensive REBOUND by Simpson, Jordan</t>
-  </si>
-  <si>
-    <t>3 Pointer GOOD by SCSt's Taylor, Atiba</t>
-  </si>
-  <si>
-    <t>SCSt Assist by Simpson, Jordan</t>
-  </si>
-  <si>
-    <t>Foul on SCSt's Taylor, Atiba</t>
-  </si>
-  <si>
     <t>Free Throw GOOD by HOW's Harris, Bryce</t>
   </si>
   <si>
@@ -892,27 +796,9 @@
     <t>Subbing in for HOW - Warfield, Isiah</t>
   </si>
   <si>
-    <t>Subbing out for SCSt - Everett, Davion</t>
-  </si>
-  <si>
-    <t>Subbing in for SCSt - Marrow, James</t>
-  </si>
-  <si>
     <t>Free Throw MISSED by HOW's Harris, Bryce</t>
   </si>
   <si>
-    <t>Layup MISSED by SCSt's Simpson, Jordan</t>
-  </si>
-  <si>
-    <t>SCSt Offensive REBOUND by Marrow, James</t>
-  </si>
-  <si>
-    <t>Slam Dunk GOOD by SCSt's Marrow, James</t>
-  </si>
-  <si>
-    <t>SCSt Steal by Simpson, Jordan</t>
-  </si>
-  <si>
     <t>Subbing out for HOW - Harris, Bryce</t>
   </si>
   <si>
@@ -922,57 +808,21 @@
     <t>Foul on HOW's Hairston, Jordan</t>
   </si>
   <si>
-    <t>Free Throw GOOD by SCSt's Taylor, Mitchell</t>
-  </si>
-  <si>
     <t>Subbing out for HOW - Hairston, Jordan</t>
   </si>
   <si>
     <t>Subbing in for HOW - Towns, Seth</t>
   </si>
   <si>
-    <t>Free Throw MISSED by SCSt's Taylor, Mitchell</t>
-  </si>
-  <si>
-    <t>SCSt Offensive REBOUND by Mccarty, Caleb</t>
-  </si>
-  <si>
     <t>Foul on HOW's Towns, Seth</t>
   </si>
   <si>
-    <t>Free Throw MISSED by SCSt's Mccarty, Caleb</t>
-  </si>
-  <si>
-    <t>SCSt gets a REBOUND from a dead ball.</t>
-  </si>
-  <si>
-    <t>Subbing out for SCSt - Taylor, Mitchell</t>
-  </si>
-  <si>
-    <t>Subbing in for SCSt - Teal, Michael</t>
-  </si>
-  <si>
-    <t>Free Throw GOOD by SCSt's Mccarty, Caleb</t>
-  </si>
-  <si>
-    <t>SCSt Defensive REBOUND by Marrow, James</t>
-  </si>
-  <si>
-    <t>Foul on SCSt's Marrow, James</t>
-  </si>
-  <si>
-    <t>SCSt Turnover by Marrow, James</t>
-  </si>
-  <si>
     <t>Subbing out for HOW - Okojie, Ose</t>
   </si>
   <si>
     <t>Subbing in for HOW - Dockery, Marcus</t>
   </si>
   <si>
-    <t>Foul on SCSt's Simpson, Jordan</t>
-  </si>
-  <si>
     <t>Free Throw GOOD by HOW's Towns, Seth</t>
   </si>
   <si>
@@ -982,108 +832,42 @@
     <t>Subbing in for HOW - Harris, Bryce</t>
   </si>
   <si>
-    <t>3 Pointer MISSED by SCSt's Taylor, Atiba</t>
-  </si>
-  <si>
     <t>HOW Defensive REBOUND by Towns, Seth</t>
   </si>
   <si>
-    <t>SCSt Block by Mccarty, Caleb</t>
-  </si>
-  <si>
-    <t>SCSt Defensive REBOUND by Teal, Michael</t>
-  </si>
-  <si>
-    <t>SCSt Turnover by Simpson, Jordan</t>
-  </si>
-  <si>
     <t>HOW Steal by Towns, Seth</t>
   </si>
   <si>
-    <t>Subbing out for SCSt - Taylor, Atiba</t>
-  </si>
-  <si>
-    <t>Subbing out for SCSt - Simpson, Jordan</t>
-  </si>
-  <si>
-    <t>Subbing out for SCSt - Marrow, James</t>
-  </si>
-  <si>
-    <t>Subbing in for SCSt - Croskey, Omar</t>
-  </si>
-  <si>
-    <t>Subbing in for SCSt - Brown, Raquan</t>
-  </si>
-  <si>
-    <t>Subbing in for SCSt - Dubinsky, Wilson</t>
-  </si>
-  <si>
     <t>Free Throw GOOD by HOW's Warfield, Isiah</t>
   </si>
   <si>
-    <t>Layup GOOD by SCSt's Croskey, Omar</t>
-  </si>
-  <si>
-    <t>SCSt Assist by Teal, Michael</t>
-  </si>
-  <si>
     <t>3 Pointer GOOD by HOW's Towns, Seth</t>
   </si>
   <si>
-    <t>3 Pointer GOOD by SCSt's Teal, Michael</t>
-  </si>
-  <si>
-    <t>SCSt Steal by Dubinsky, Wilson</t>
-  </si>
-  <si>
-    <t>SCSt Assist by Dubinsky, Wilson</t>
-  </si>
-  <si>
     <t>Layup GOOD by HOW's Campbell, Dom</t>
   </si>
   <si>
     <t>Foul on HOW's Warfield, Isiah</t>
   </si>
   <si>
-    <t>3 Pointer MISSED by SCSt's Teal, Michael</t>
-  </si>
-  <si>
     <t>HOW Defensive REBOUND by Dockery, Marcus</t>
   </si>
   <si>
     <t>Layup GOOD by HOW's Warfield, Isiah</t>
   </si>
   <si>
-    <t>Foul on SCSt's Mccarty, Caleb</t>
-  </si>
-  <si>
-    <t>SCSt Turnover by Mccarty, Caleb</t>
-  </si>
-  <si>
     <t>HOW Assist by Campbell, Dom</t>
   </si>
   <si>
     <t>Free Throw MISSED by HOW's Odom, Shy</t>
   </si>
   <si>
-    <t>SCSt Defensive REBOUND by team</t>
-  </si>
-  <si>
-    <t>3 Pointer MISSED by SCSt's Dubinsky, Wilson</t>
-  </si>
-  <si>
     <t>HOW Turnover by Campbell, Dom</t>
   </si>
   <si>
     <t>HOW Turnover by Odom, Shy</t>
   </si>
   <si>
-    <t>SCSt Steal by Taylor, Mitchell</t>
-  </si>
-  <si>
-    <t>Layup MISSED by SCSt's Croskey, Omar</t>
-  </si>
-  <si>
     <t>3 Pointer MISSED by HOW's Hairston, Jordan</t>
   </si>
   <si>
@@ -1093,135 +877,57 @@
     <t>Foul on HOW's Odom, Shy</t>
   </si>
   <si>
-    <t>Free Throw GOOD by SCSt's Teal, Michael</t>
-  </si>
-  <si>
     <t>HOW Turnover by Warfield, Isiah</t>
   </si>
   <si>
-    <t>SCSt Steal by Taylor, Atiba</t>
-  </si>
-  <si>
-    <t>Jumper MISSED by SCSt's Simpson, Jordan</t>
-  </si>
-  <si>
     <t>HOW Defensive REBOUND by Harris, Bryce</t>
   </si>
   <si>
     <t>Layup MISSED by HOW's Odom, Shy</t>
   </si>
   <si>
-    <t>SCSt Turnover by Taylor, Atiba</t>
-  </si>
-  <si>
-    <t>SCSt Defensive REBOUND by Jones, Drayton</t>
-  </si>
-  <si>
-    <t>3 Pointer MISSED by SCSt's Simpson, Jordan</t>
-  </si>
-  <si>
     <t>Free Throw GOOD by HOW's Dockery, Marcus</t>
   </si>
   <si>
     <t>Subbing in for HOW - Strong, Joshua</t>
   </si>
   <si>
-    <t>Subbing in for SCSt - James, Dallas</t>
-  </si>
-  <si>
     <t>Jumper GOOD by HOW's Dockery, Marcus</t>
   </si>
   <si>
-    <t>Jumper GOOD by SCSt's Simpson, Jordan</t>
-  </si>
-  <si>
-    <t>SCSt Defensive REBOUND by Dubinsky, Wilson</t>
-  </si>
-  <si>
-    <t>3 Pointer MISSED by SCSt's Mccarty, Caleb</t>
-  </si>
-  <si>
     <t>HOW Turnover by Dockery, Marcus</t>
   </si>
   <si>
-    <t>SCSt takes a 30-second time out.</t>
-  </si>
-  <si>
     <t>Subbing out for HOW - Strong, Joshua</t>
   </si>
   <si>
     <t>HOW takes a 30-second time out.</t>
   </si>
   <si>
-    <t>SCSt Offensive REBOUND by Dubinsky, Wilson</t>
-  </si>
-  <si>
-    <t>3 Pointer MISSED by SCSt's Taylor, Mitchell</t>
-  </si>
-  <si>
     <t>HOW gets a REBOUND from a dead ball.</t>
   </si>
   <si>
-    <t>Subbing out for SCSt - Dubinsky, Wilson</t>
-  </si>
-  <si>
-    <t>SCSt Steal by Brown, Raquan</t>
-  </si>
-  <si>
-    <t>3 Pointer GOOD by SCSt's Croskey, Omar</t>
-  </si>
-  <si>
-    <t>SCSt Assist by Brown, Raquan</t>
-  </si>
-  <si>
     <t>3 Pointer MISSED by HOW's Harris, Bryce</t>
   </si>
   <si>
-    <t>SCSt Defensive REBOUND by Brown, Raquan</t>
-  </si>
-  <si>
     <t>HOW takes a TIMEOUT</t>
   </si>
   <si>
-    <t>Foul on SCSt's James, Dallas</t>
-  </si>
-  <si>
-    <t>SCSt Assist by Croskey, Omar</t>
-  </si>
-  <si>
     <t>HOW Assist by Dockery, Marcus</t>
   </si>
   <si>
-    <t>Layup MISSED by SCSt's Teal, Michael</t>
-  </si>
-  <si>
     <t>HOW Block by Warfield, Isiah</t>
   </si>
   <si>
     <t>Layup MISSED by HOW's Towns, Seth</t>
   </si>
   <si>
-    <t>SCSt Offensive REBOUND by Jones, Drayton</t>
-  </si>
-  <si>
     <t>HOW Block by Towns, Seth</t>
   </si>
   <si>
-    <t>SCSt Offensive REBOUND by Croskey, Omar</t>
-  </si>
-  <si>
-    <t>Free Throw GOOD by SCSt's Croskey, Omar</t>
-  </si>
-  <si>
     <t>Layup MISSED by HOW's Harris, Bryce</t>
   </si>
   <si>
-    <t>SCSt Defensive REBOUND by Mccarty, Caleb</t>
-  </si>
-  <si>
-    <t>3 Pointer MISSED by SCSt's Brown, Raquan</t>
-  </si>
-  <si>
     <t>HOW Defensive REBOUND by Odom, Shy</t>
   </si>
   <si>
@@ -1234,60 +940,15 @@
     <t>HOW Turnover by team</t>
   </si>
   <si>
-    <t>Layup MISSED by SCSt's Brown, Raquan</t>
-  </si>
-  <si>
-    <t>SCSt Offensive REBOUND by Brown, Raquan</t>
-  </si>
-  <si>
-    <t>Free Throw GOOD by SCSt's Brown, Raquan</t>
-  </si>
-  <si>
-    <t>Free Throw MISSED by SCSt's Brown, Raquan</t>
-  </si>
-  <si>
-    <t>SCSt Offensive REBOUND by Taylor, Mitchell</t>
-  </si>
-  <si>
-    <t>Layup GOOD by SCSt's Taylor, Mitchell</t>
-  </si>
-  <si>
     <t>HOW Turnover by Strong, Joshua</t>
   </si>
   <si>
-    <t>SCSt Block by Everett, Davion</t>
-  </si>
-  <si>
-    <t>SCSt Defensive REBOUND by Taylor, Atiba</t>
-  </si>
-  <si>
     <t>Foul on HOW's Okojie, Ose</t>
   </si>
   <si>
-    <t>Free Throw GOOD by SCSt's Taylor, Atiba</t>
-  </si>
-  <si>
-    <t>Jumper GOOD by SCSt's Taylor, Mitchell</t>
-  </si>
-  <si>
-    <t>SCSt Turnover by Jones, Drayton</t>
-  </si>
-  <si>
-    <t>3 Pointer GOOD by SCSt's Dubinsky, Wilson</t>
-  </si>
-  <si>
-    <t>SCSt Assist by Jones, Drayton</t>
-  </si>
-  <si>
-    <t>Layup GOOD by SCSt's Jones, Drayton</t>
-  </si>
-  <si>
     <t>Layup GOOD by HOW's Harris, Bryce</t>
   </si>
   <si>
-    <t>Foul on SCSt's Jones, Drayton</t>
-  </si>
-  <si>
     <t>HOW Steal by Harris, Bryce</t>
   </si>
   <si>
@@ -1297,12 +958,6 @@
     <t>HOW Defensive REBOUND by Hairston, Jordan</t>
   </si>
   <si>
-    <t>SCSt Steal by Jones, Drayton</t>
-  </si>
-  <si>
-    <t>SCSt Turnover by Croskey, Omar</t>
-  </si>
-  <si>
     <t>HOW Offensive REBOUND by team</t>
   </si>
   <si>
@@ -1321,12 +976,6 @@
     <t>HOW Block by Harris, Bryce</t>
   </si>
   <si>
-    <t>Layup MISSED by SCSt's Taylor, Mitchell</t>
-  </si>
-  <si>
-    <t>Layup GOOD by SCSt's Brown, Raquan</t>
-  </si>
-  <si>
     <t>Free Throw MISSED by HOW's Towns, Seth</t>
   </si>
   <si>
@@ -1336,26 +985,383 @@
     <t>Layup GOOD by HOW's Hairston, Jordan</t>
   </si>
   <si>
-    <t>Foul on SCSt's Teal, Michael</t>
-  </si>
-  <si>
     <t>Free Throw GOOD by HOW's Odom, Shy</t>
   </si>
   <si>
-    <t>Foul on SCSt's Taylor, Mitchell</t>
-  </si>
-  <si>
     <t>Free Throw GOOD by HOW's Hairston, Jordan</t>
   </si>
   <si>
-    <t>SCSt Defensive REBOUND by Taylor, Mitchell</t>
+    <t>3 Pointer MISSED by SCSTATE's Croskey, Omar</t>
+  </si>
+  <si>
+    <t>SCSTATE Defensive REBOUND by Croskey, Omar</t>
+  </si>
+  <si>
+    <t>Jumper GOOD by SCSTATE's Teal, Michael</t>
+  </si>
+  <si>
+    <t>SCSTATE Turnover by team</t>
+  </si>
+  <si>
+    <t>Subbing out for SCSTATE - James, Dallas</t>
+  </si>
+  <si>
+    <t>Subbing in for SCSTATE - Jones, Drayton</t>
+  </si>
+  <si>
+    <t>Subbing out for SCSTATE - Mccarty, Caleb</t>
+  </si>
+  <si>
+    <t>Subbing in for SCSTATE - Everett, Davion</t>
+  </si>
+  <si>
+    <t>SCSTATE Defensive REBOUND by Everett, Davion</t>
+  </si>
+  <si>
+    <t>Free Throw GOOD by SCSTATE's Jones, Drayton</t>
+  </si>
+  <si>
+    <t>Foul on SCSTATE's Croskey, Omar</t>
+  </si>
+  <si>
+    <t>Jumper MISSED by SCSTATE's Teal, Michael</t>
+  </si>
+  <si>
+    <t>SCSTATE Offensive REBOUND by Everett, Davion</t>
+  </si>
+  <si>
+    <t>3 Pointer GOOD by SCSTATE's Brown, Raquan</t>
+  </si>
+  <si>
+    <t>SCSTATE Assist by Everett, Davion</t>
+  </si>
+  <si>
+    <t>SCSTATE Steal by Croskey, Omar</t>
+  </si>
+  <si>
+    <t>Subbing out for SCSTATE - Croskey, Omar</t>
+  </si>
+  <si>
+    <t>Subbing in for SCSTATE - Taylor, Mitchell</t>
+  </si>
+  <si>
+    <t>Subbing out for SCSTATE - Teal, Michael</t>
+  </si>
+  <si>
+    <t>Subbing in for SCSTATE - Simpson, Jordan</t>
+  </si>
+  <si>
+    <t>Jumper MISSED by SCSTATE's Brown, Raquan</t>
+  </si>
+  <si>
+    <t>Foul on SCSTATE's Everett, Davion</t>
+  </si>
+  <si>
+    <t>SCSTATE Turnover by Taylor, Mitchell</t>
+  </si>
+  <si>
+    <t>Jumper MISSED by SCSTATE's Taylor, Mitchell</t>
+  </si>
+  <si>
+    <t>Jumper GOOD by SCSTATE's Jones, Drayton</t>
+  </si>
+  <si>
+    <t>Foul on SCSTATE's Brown, Raquan</t>
+  </si>
+  <si>
+    <t>Subbing out for SCSTATE - Brown, Raquan</t>
+  </si>
+  <si>
+    <t>Subbing out for SCSTATE - Jones, Drayton</t>
+  </si>
+  <si>
+    <t>Subbing in for SCSTATE - Taylor, Atiba</t>
+  </si>
+  <si>
+    <t>Subbing in for SCSTATE - Mccarty, Caleb</t>
+  </si>
+  <si>
+    <t>SCSTATE Defensive REBOUND by Simpson, Jordan</t>
+  </si>
+  <si>
+    <t>3 Pointer GOOD by SCSTATE's Taylor, Atiba</t>
+  </si>
+  <si>
+    <t>SCSTATE Assist by Simpson, Jordan</t>
+  </si>
+  <si>
+    <t>Foul on SCSTATE's Taylor, Atiba</t>
+  </si>
+  <si>
+    <t>Subbing out for SCSTATE - Everett, Davion</t>
+  </si>
+  <si>
+    <t>Subbing in for SCSTATE - Marrow, James</t>
+  </si>
+  <si>
+    <t>Layup MISSED by SCSTATE's Simpson, Jordan</t>
+  </si>
+  <si>
+    <t>SCSTATE Offensive REBOUND by Marrow, James</t>
+  </si>
+  <si>
+    <t>Slam Dunk GOOD by SCSTATE's Marrow, James</t>
+  </si>
+  <si>
+    <t>SCSTATE Steal by Simpson, Jordan</t>
+  </si>
+  <si>
+    <t>Free Throw GOOD by SCSTATE's Taylor, Mitchell</t>
+  </si>
+  <si>
+    <t>Free Throw MISSED by SCSTATE's Taylor, Mitchell</t>
+  </si>
+  <si>
+    <t>SCSTATE Offensive REBOUND by Mccarty, Caleb</t>
+  </si>
+  <si>
+    <t>Free Throw MISSED by SCSTATE's Mccarty, Caleb</t>
+  </si>
+  <si>
+    <t>SCSTATE gets a REBOUND from a dead ball.</t>
+  </si>
+  <si>
+    <t>Subbing out for SCSTATE - Taylor, Mitchell</t>
+  </si>
+  <si>
+    <t>Subbing in for SCSTATE - Teal, Michael</t>
+  </si>
+  <si>
+    <t>Free Throw GOOD by SCSTATE's Mccarty, Caleb</t>
+  </si>
+  <si>
+    <t>SCSTATE Defensive REBOUND by Marrow, James</t>
+  </si>
+  <si>
+    <t>Foul on SCSTATE's Marrow, James</t>
+  </si>
+  <si>
+    <t>SCSTATE Turnover by Marrow, James</t>
+  </si>
+  <si>
+    <t>Foul on SCSTATE's Simpson, Jordan</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by SCSTATE's Taylor, Atiba</t>
+  </si>
+  <si>
+    <t>SCSTATE Block by Mccarty, Caleb</t>
+  </si>
+  <si>
+    <t>SCSTATE Defensive REBOUND by Teal, Michael</t>
+  </si>
+  <si>
+    <t>SCSTATE Turnover by Simpson, Jordan</t>
+  </si>
+  <si>
+    <t>Subbing out for SCSTATE - Taylor, Atiba</t>
+  </si>
+  <si>
+    <t>Subbing out for SCSTATE - Simpson, Jordan</t>
+  </si>
+  <si>
+    <t>Subbing out for SCSTATE - Marrow, James</t>
+  </si>
+  <si>
+    <t>Subbing in for SCSTATE - Croskey, Omar</t>
+  </si>
+  <si>
+    <t>Subbing in for SCSTATE - Brown, Raquan</t>
+  </si>
+  <si>
+    <t>Subbing in for SCSTATE - Dubinsky, Wilson</t>
+  </si>
+  <si>
+    <t>Layup GOOD by SCSTATE's Croskey, Omar</t>
+  </si>
+  <si>
+    <t>SCSTATE Assist by Teal, Michael</t>
+  </si>
+  <si>
+    <t>3 Pointer GOOD by SCSTATE's Teal, Michael</t>
+  </si>
+  <si>
+    <t>SCSTATE Steal by Dubinsky, Wilson</t>
+  </si>
+  <si>
+    <t>SCSTATE Assist by Dubinsky, Wilson</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by SCSTATE's Teal, Michael</t>
+  </si>
+  <si>
+    <t>Foul on SCSTATE's Mccarty, Caleb</t>
+  </si>
+  <si>
+    <t>SCSTATE Turnover by Mccarty, Caleb</t>
+  </si>
+  <si>
+    <t>SCSTATE Defensive REBOUND by team</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by SCSTATE's Dubinsky, Wilson</t>
+  </si>
+  <si>
+    <t>SCSTATE Steal by Taylor, Mitchell</t>
+  </si>
+  <si>
+    <t>Layup MISSED by SCSTATE's Croskey, Omar</t>
+  </si>
+  <si>
+    <t>Free Throw GOOD by SCSTATE's Teal, Michael</t>
+  </si>
+  <si>
+    <t>SCSTATE Steal by Taylor, Atiba</t>
+  </si>
+  <si>
+    <t>Jumper MISSED by SCSTATE's Simpson, Jordan</t>
+  </si>
+  <si>
+    <t>SCSTATE Turnover by Taylor, Atiba</t>
+  </si>
+  <si>
+    <t>SCSTATE Defensive REBOUND by Jones, Drayton</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by SCSTATE's Simpson, Jordan</t>
+  </si>
+  <si>
+    <t>Subbing in for SCSTATE - James, Dallas</t>
+  </si>
+  <si>
+    <t>Jumper GOOD by SCSTATE's Simpson, Jordan</t>
+  </si>
+  <si>
+    <t>SCSTATE Defensive REBOUND by Dubinsky, Wilson</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by SCSTATE's Mccarty, Caleb</t>
+  </si>
+  <si>
+    <t>SCSTATE takes a 30-second time out.</t>
+  </si>
+  <si>
+    <t>SCSTATE Offensive REBOUND by Dubinsky, Wilson</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by SCSTATE's Taylor, Mitchell</t>
+  </si>
+  <si>
+    <t>Subbing out for SCSTATE - Dubinsky, Wilson</t>
+  </si>
+  <si>
+    <t>SCSTATE Steal by Brown, Raquan</t>
+  </si>
+  <si>
+    <t>3 Pointer GOOD by SCSTATE's Croskey, Omar</t>
+  </si>
+  <si>
+    <t>SCSTATE Assist by Brown, Raquan</t>
+  </si>
+  <si>
+    <t>SCSTATE Defensive REBOUND by Brown, Raquan</t>
+  </si>
+  <si>
+    <t>Foul on SCSTATE's James, Dallas</t>
+  </si>
+  <si>
+    <t>SCSTATE Assist by Croskey, Omar</t>
+  </si>
+  <si>
+    <t>Layup MISSED by SCSTATE's Teal, Michael</t>
+  </si>
+  <si>
+    <t>SCSTATE Offensive REBOUND by Jones, Drayton</t>
+  </si>
+  <si>
+    <t>SCSTATE Offensive REBOUND by Croskey, Omar</t>
+  </si>
+  <si>
+    <t>Free Throw GOOD by SCSTATE's Croskey, Omar</t>
+  </si>
+  <si>
+    <t>SCSTATE Defensive REBOUND by Mccarty, Caleb</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by SCSTATE's Brown, Raquan</t>
+  </si>
+  <si>
+    <t>Layup MISSED by SCSTATE's Brown, Raquan</t>
+  </si>
+  <si>
+    <t>SCSTATE Offensive REBOUND by Brown, Raquan</t>
+  </si>
+  <si>
+    <t>Free Throw GOOD by SCSTATE's Brown, Raquan</t>
+  </si>
+  <si>
+    <t>Free Throw MISSED by SCSTATE's Brown, Raquan</t>
+  </si>
+  <si>
+    <t>SCSTATE Offensive REBOUND by Taylor, Mitchell</t>
+  </si>
+  <si>
+    <t>Layup GOOD by SCSTATE's Taylor, Mitchell</t>
+  </si>
+  <si>
+    <t>SCSTATE Block by Everett, Davion</t>
+  </si>
+  <si>
+    <t>SCSTATE Defensive REBOUND by Taylor, Atiba</t>
+  </si>
+  <si>
+    <t>Free Throw GOOD by SCSTATE's Taylor, Atiba</t>
+  </si>
+  <si>
+    <t>Jumper GOOD by SCSTATE's Taylor, Mitchell</t>
+  </si>
+  <si>
+    <t>SCSTATE Turnover by Jones, Drayton</t>
+  </si>
+  <si>
+    <t>3 Pointer GOOD by SCSTATE's Dubinsky, Wilson</t>
+  </si>
+  <si>
+    <t>SCSTATE Assist by Jones, Drayton</t>
+  </si>
+  <si>
+    <t>Layup GOOD by SCSTATE's Jones, Drayton</t>
+  </si>
+  <si>
+    <t>Foul on SCSTATE's Jones, Drayton</t>
+  </si>
+  <si>
+    <t>SCSTATE Steal by Jones, Drayton</t>
+  </si>
+  <si>
+    <t>SCSTATE Turnover by Croskey, Omar</t>
+  </si>
+  <si>
+    <t>Layup MISSED by SCSTATE's Taylor, Mitchell</t>
+  </si>
+  <si>
+    <t>Layup GOOD by SCSTATE's Brown, Raquan</t>
+  </si>
+  <si>
+    <t>Foul on SCSTATE's Teal, Michael</t>
+  </si>
+  <si>
+    <t>Foul on SCSTATE's Taylor, Mitchell</t>
+  </si>
+  <si>
+    <t>SCSTATE Defensive REBOUND by Taylor, Mitchell</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1418,13 +1424,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1462,7 +1476,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1496,6 +1510,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1530,9 +1545,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1705,14 +1721,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E556"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1729,7 +1745,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1743,10 +1759,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1760,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1777,10 +1793,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1794,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1811,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1828,10 +1844,10 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1845,10 +1861,10 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1862,10 +1878,10 @@
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1879,10 +1895,10 @@
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1896,10 +1912,10 @@
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1913,10 +1929,10 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1930,10 +1946,10 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1947,10 +1963,10 @@
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1964,10 +1980,10 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1981,10 +1997,10 @@
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1998,10 +2014,10 @@
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2015,10 +2031,10 @@
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -2032,10 +2048,10 @@
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2049,10 +2065,10 @@
         <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2066,10 +2082,10 @@
         <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2083,10 +2099,10 @@
         <v>6</v>
       </c>
       <c r="E22" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -2100,10 +2116,10 @@
         <v>6</v>
       </c>
       <c r="E23" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2117,10 +2133,10 @@
         <v>6</v>
       </c>
       <c r="E24" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -2134,10 +2150,10 @@
         <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -2151,10 +2167,10 @@
         <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -2168,10 +2184,10 @@
         <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2185,10 +2201,10 @@
         <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -2202,10 +2218,10 @@
         <v>9</v>
       </c>
       <c r="E29" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -2219,10 +2235,10 @@
         <v>9</v>
       </c>
       <c r="E30" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -2236,10 +2252,10 @@
         <v>9</v>
       </c>
       <c r="E31" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2253,10 +2269,10 @@
         <v>9</v>
       </c>
       <c r="E32" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -2270,10 +2286,10 @@
         <v>9</v>
       </c>
       <c r="E33" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -2287,10 +2303,10 @@
         <v>9</v>
       </c>
       <c r="E34" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -2304,10 +2320,10 @@
         <v>9</v>
       </c>
       <c r="E35" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -2321,10 +2337,10 @@
         <v>9</v>
       </c>
       <c r="E36" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -2338,10 +2354,10 @@
         <v>9</v>
       </c>
       <c r="E37" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -2355,10 +2371,10 @@
         <v>9</v>
       </c>
       <c r="E38" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -2372,10 +2388,10 @@
         <v>9</v>
       </c>
       <c r="E39" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -2389,10 +2405,10 @@
         <v>9</v>
       </c>
       <c r="E40" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -2406,10 +2422,10 @@
         <v>9</v>
       </c>
       <c r="E41" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -2423,10 +2439,10 @@
         <v>9</v>
       </c>
       <c r="E42" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -2440,10 +2456,10 @@
         <v>9</v>
       </c>
       <c r="E43" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -2457,10 +2473,10 @@
         <v>9</v>
       </c>
       <c r="E44" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1</v>
       </c>
@@ -2474,10 +2490,10 @@
         <v>9</v>
       </c>
       <c r="E45" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -2491,10 +2507,10 @@
         <v>9</v>
       </c>
       <c r="E46" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1</v>
       </c>
@@ -2508,10 +2524,10 @@
         <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -2525,10 +2541,10 @@
         <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1</v>
       </c>
@@ -2542,10 +2558,10 @@
         <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
@@ -2559,10 +2575,10 @@
         <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1</v>
       </c>
@@ -2576,10 +2592,10 @@
         <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1</v>
       </c>
@@ -2593,10 +2609,10 @@
         <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1</v>
       </c>
@@ -2610,10 +2626,10 @@
         <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1</v>
       </c>
@@ -2627,10 +2643,10 @@
         <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1</v>
       </c>
@@ -2644,10 +2660,10 @@
         <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1</v>
       </c>
@@ -2661,10 +2677,10 @@
         <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1</v>
       </c>
@@ -2678,10 +2694,10 @@
         <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1</v>
       </c>
@@ -2695,10 +2711,10 @@
         <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1</v>
       </c>
@@ -2712,10 +2728,10 @@
         <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1</v>
       </c>
@@ -2729,10 +2745,10 @@
         <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1</v>
       </c>
@@ -2746,10 +2762,10 @@
         <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1</v>
       </c>
@@ -2763,10 +2779,10 @@
         <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1</v>
       </c>
@@ -2780,10 +2796,10 @@
         <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1</v>
       </c>
@@ -2797,10 +2813,10 @@
         <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1</v>
       </c>
@@ -2814,10 +2830,10 @@
         <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1</v>
       </c>
@@ -2831,10 +2847,10 @@
         <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1</v>
       </c>
@@ -2848,10 +2864,10 @@
         <v>12</v>
       </c>
       <c r="E67" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1</v>
       </c>
@@ -2865,10 +2881,10 @@
         <v>12</v>
       </c>
       <c r="E68" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1</v>
       </c>
@@ -2882,10 +2898,10 @@
         <v>12</v>
       </c>
       <c r="E69" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1</v>
       </c>
@@ -2899,10 +2915,10 @@
         <v>12</v>
       </c>
       <c r="E70" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1</v>
       </c>
@@ -2916,10 +2932,10 @@
         <v>12</v>
       </c>
       <c r="E71" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1</v>
       </c>
@@ -2933,10 +2949,10 @@
         <v>12</v>
       </c>
       <c r="E72" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1</v>
       </c>
@@ -2950,10 +2966,10 @@
         <v>12</v>
       </c>
       <c r="E73" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1</v>
       </c>
@@ -2967,10 +2983,10 @@
         <v>12</v>
       </c>
       <c r="E74" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1</v>
       </c>
@@ -2984,10 +3000,10 @@
         <v>12</v>
       </c>
       <c r="E75" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1</v>
       </c>
@@ -3001,10 +3017,10 @@
         <v>12</v>
       </c>
       <c r="E76" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1</v>
       </c>
@@ -3018,10 +3034,10 @@
         <v>12</v>
       </c>
       <c r="E77" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1</v>
       </c>
@@ -3035,10 +3051,10 @@
         <v>12</v>
       </c>
       <c r="E78" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1</v>
       </c>
@@ -3052,10 +3068,10 @@
         <v>12</v>
       </c>
       <c r="E79" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1</v>
       </c>
@@ -3069,10 +3085,10 @@
         <v>12</v>
       </c>
       <c r="E80" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1</v>
       </c>
@@ -3086,10 +3102,10 @@
         <v>12</v>
       </c>
       <c r="E81" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1</v>
       </c>
@@ -3103,10 +3119,10 @@
         <v>12</v>
       </c>
       <c r="E82" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1</v>
       </c>
@@ -3120,10 +3136,10 @@
         <v>12</v>
       </c>
       <c r="E83" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1</v>
       </c>
@@ -3137,10 +3153,10 @@
         <v>12</v>
       </c>
       <c r="E84" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1</v>
       </c>
@@ -3154,10 +3170,10 @@
         <v>12</v>
       </c>
       <c r="E85" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1</v>
       </c>
@@ -3171,10 +3187,10 @@
         <v>12</v>
       </c>
       <c r="E86" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1</v>
       </c>
@@ -3188,10 +3204,10 @@
         <v>12</v>
       </c>
       <c r="E87" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1</v>
       </c>
@@ -3205,10 +3221,10 @@
         <v>12</v>
       </c>
       <c r="E88" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1</v>
       </c>
@@ -3222,10 +3238,10 @@
         <v>12</v>
       </c>
       <c r="E89" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1</v>
       </c>
@@ -3239,10 +3255,10 @@
         <v>12</v>
       </c>
       <c r="E90" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1</v>
       </c>
@@ -3256,10 +3272,10 @@
         <v>12</v>
       </c>
       <c r="E91" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1</v>
       </c>
@@ -3273,10 +3289,10 @@
         <v>12</v>
       </c>
       <c r="E92" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1</v>
       </c>
@@ -3290,10 +3306,10 @@
         <v>12</v>
       </c>
       <c r="E93" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1</v>
       </c>
@@ -3307,10 +3323,10 @@
         <v>12</v>
       </c>
       <c r="E94" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1</v>
       </c>
@@ -3324,10 +3340,10 @@
         <v>12</v>
       </c>
       <c r="E95" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1</v>
       </c>
@@ -3341,10 +3357,10 @@
         <v>12</v>
       </c>
       <c r="E96" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1</v>
       </c>
@@ -3358,10 +3374,10 @@
         <v>12</v>
       </c>
       <c r="E97" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1</v>
       </c>
@@ -3375,10 +3391,10 @@
         <v>12</v>
       </c>
       <c r="E98" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1</v>
       </c>
@@ -3392,10 +3408,10 @@
         <v>12</v>
       </c>
       <c r="E99" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1</v>
       </c>
@@ -3409,10 +3425,10 @@
         <v>13</v>
       </c>
       <c r="E100" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1</v>
       </c>
@@ -3426,10 +3442,10 @@
         <v>13</v>
       </c>
       <c r="E101" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1</v>
       </c>
@@ -3443,10 +3459,10 @@
         <v>13</v>
       </c>
       <c r="E102" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1</v>
       </c>
@@ -3460,10 +3476,10 @@
         <v>14</v>
       </c>
       <c r="E103" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1</v>
       </c>
@@ -3477,10 +3493,10 @@
         <v>14</v>
       </c>
       <c r="E104" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1</v>
       </c>
@@ -3494,10 +3510,10 @@
         <v>14</v>
       </c>
       <c r="E105" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1</v>
       </c>
@@ -3511,10 +3527,10 @@
         <v>14</v>
       </c>
       <c r="E106" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1</v>
       </c>
@@ -3528,10 +3544,10 @@
         <v>14</v>
       </c>
       <c r="E107" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1</v>
       </c>
@@ -3545,10 +3561,10 @@
         <v>14</v>
       </c>
       <c r="E108" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1</v>
       </c>
@@ -3562,10 +3578,10 @@
         <v>14</v>
       </c>
       <c r="E109" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1</v>
       </c>
@@ -3579,10 +3595,10 @@
         <v>14</v>
       </c>
       <c r="E110" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1</v>
       </c>
@@ -3596,10 +3612,10 @@
         <v>14</v>
       </c>
       <c r="E111" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1</v>
       </c>
@@ -3613,10 +3629,10 @@
         <v>14</v>
       </c>
       <c r="E112" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1</v>
       </c>
@@ -3630,10 +3646,10 @@
         <v>14</v>
       </c>
       <c r="E113" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1</v>
       </c>
@@ -3647,10 +3663,10 @@
         <v>14</v>
       </c>
       <c r="E114" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1</v>
       </c>
@@ -3664,10 +3680,10 @@
         <v>14</v>
       </c>
       <c r="E115" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1</v>
       </c>
@@ -3681,10 +3697,10 @@
         <v>14</v>
       </c>
       <c r="E116" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1</v>
       </c>
@@ -3698,10 +3714,10 @@
         <v>14</v>
       </c>
       <c r="E117" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1</v>
       </c>
@@ -3715,10 +3731,10 @@
         <v>14</v>
       </c>
       <c r="E118" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1</v>
       </c>
@@ -3732,10 +3748,10 @@
         <v>14</v>
       </c>
       <c r="E119" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1</v>
       </c>
@@ -3749,10 +3765,10 @@
         <v>14</v>
       </c>
       <c r="E120" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1</v>
       </c>
@@ -3766,10 +3782,10 @@
         <v>15</v>
       </c>
       <c r="E121" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1</v>
       </c>
@@ -3783,10 +3799,10 @@
         <v>16</v>
       </c>
       <c r="E122" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1</v>
       </c>
@@ -3800,10 +3816,10 @@
         <v>16</v>
       </c>
       <c r="E123" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1</v>
       </c>
@@ -3817,10 +3833,10 @@
         <v>16</v>
       </c>
       <c r="E124" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1</v>
       </c>
@@ -3834,10 +3850,10 @@
         <v>19</v>
       </c>
       <c r="E125" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1</v>
       </c>
@@ -3851,10 +3867,10 @@
         <v>19</v>
       </c>
       <c r="E126" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1</v>
       </c>
@@ -3868,10 +3884,10 @@
         <v>19</v>
       </c>
       <c r="E127" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1</v>
       </c>
@@ -3885,10 +3901,10 @@
         <v>19</v>
       </c>
       <c r="E128" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1</v>
       </c>
@@ -3902,10 +3918,10 @@
         <v>19</v>
       </c>
       <c r="E129" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1</v>
       </c>
@@ -3919,10 +3935,10 @@
         <v>19</v>
       </c>
       <c r="E130" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1</v>
       </c>
@@ -3936,10 +3952,10 @@
         <v>19</v>
       </c>
       <c r="E131" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>1</v>
       </c>
@@ -3953,10 +3969,10 @@
         <v>21</v>
       </c>
       <c r="E132" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1</v>
       </c>
@@ -3970,10 +3986,10 @@
         <v>21</v>
       </c>
       <c r="E133" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1</v>
       </c>
@@ -3987,10 +4003,10 @@
         <v>21</v>
       </c>
       <c r="E134" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>1</v>
       </c>
@@ -4004,10 +4020,10 @@
         <v>21</v>
       </c>
       <c r="E135" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>1</v>
       </c>
@@ -4021,10 +4037,10 @@
         <v>21</v>
       </c>
       <c r="E136" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>1</v>
       </c>
@@ -4038,10 +4054,10 @@
         <v>21</v>
       </c>
       <c r="E137" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>1</v>
       </c>
@@ -4055,10 +4071,10 @@
         <v>21</v>
       </c>
       <c r="E138" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>1</v>
       </c>
@@ -4072,10 +4088,10 @@
         <v>21</v>
       </c>
       <c r="E139" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>1</v>
       </c>
@@ -4089,10 +4105,10 @@
         <v>23</v>
       </c>
       <c r="E140" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>1</v>
       </c>
@@ -4106,10 +4122,10 @@
         <v>23</v>
       </c>
       <c r="E141" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>1</v>
       </c>
@@ -4123,10 +4139,10 @@
         <v>23</v>
       </c>
       <c r="E142" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>1</v>
       </c>
@@ -4140,10 +4156,10 @@
         <v>23</v>
       </c>
       <c r="E143" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>1</v>
       </c>
@@ -4157,10 +4173,10 @@
         <v>23</v>
       </c>
       <c r="E144" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>1</v>
       </c>
@@ -4174,10 +4190,10 @@
         <v>23</v>
       </c>
       <c r="E145" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>1</v>
       </c>
@@ -4191,10 +4207,10 @@
         <v>23</v>
       </c>
       <c r="E146" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>1</v>
       </c>
@@ -4208,10 +4224,10 @@
         <v>23</v>
       </c>
       <c r="E147" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>1</v>
       </c>
@@ -4225,10 +4241,10 @@
         <v>23</v>
       </c>
       <c r="E148" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>1</v>
       </c>
@@ -4242,10 +4258,10 @@
         <v>23</v>
       </c>
       <c r="E149" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>1</v>
       </c>
@@ -4259,10 +4275,10 @@
         <v>23</v>
       </c>
       <c r="E150" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>1</v>
       </c>
@@ -4276,10 +4292,10 @@
         <v>25</v>
       </c>
       <c r="E151" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>1</v>
       </c>
@@ -4293,10 +4309,10 @@
         <v>25</v>
       </c>
       <c r="E152" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>1</v>
       </c>
@@ -4310,10 +4326,10 @@
         <v>25</v>
       </c>
       <c r="E153" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>1</v>
       </c>
@@ -4327,10 +4343,10 @@
         <v>25</v>
       </c>
       <c r="E154" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>1</v>
       </c>
@@ -4344,10 +4360,10 @@
         <v>25</v>
       </c>
       <c r="E155" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>1</v>
       </c>
@@ -4361,10 +4377,10 @@
         <v>25</v>
       </c>
       <c r="E156" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>1</v>
       </c>
@@ -4378,10 +4394,10 @@
         <v>25</v>
       </c>
       <c r="E157" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1</v>
       </c>
@@ -4395,10 +4411,10 @@
         <v>25</v>
       </c>
       <c r="E158" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>1</v>
       </c>
@@ -4412,10 +4428,10 @@
         <v>25</v>
       </c>
       <c r="E159" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>1</v>
       </c>
@@ -4429,10 +4445,10 @@
         <v>25</v>
       </c>
       <c r="E160" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>1</v>
       </c>
@@ -4446,10 +4462,10 @@
         <v>25</v>
       </c>
       <c r="E161" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>1</v>
       </c>
@@ -4463,10 +4479,10 @@
         <v>25</v>
       </c>
       <c r="E162" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>1</v>
       </c>
@@ -4480,10 +4496,10 @@
         <v>25</v>
       </c>
       <c r="E163" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>1</v>
       </c>
@@ -4497,10 +4513,10 @@
         <v>25</v>
       </c>
       <c r="E164" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>1</v>
       </c>
@@ -4514,10 +4530,10 @@
         <v>25</v>
       </c>
       <c r="E165" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>1</v>
       </c>
@@ -4531,10 +4547,10 @@
         <v>25</v>
       </c>
       <c r="E166" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1</v>
       </c>
@@ -4548,10 +4564,10 @@
         <v>25</v>
       </c>
       <c r="E167" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>1</v>
       </c>
@@ -4565,10 +4581,10 @@
         <v>25</v>
       </c>
       <c r="E168" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>1</v>
       </c>
@@ -4582,10 +4598,10 @@
         <v>25</v>
       </c>
       <c r="E169" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>1</v>
       </c>
@@ -4599,10 +4615,10 @@
         <v>25</v>
       </c>
       <c r="E170" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>1</v>
       </c>
@@ -4616,10 +4632,10 @@
         <v>25</v>
       </c>
       <c r="E171" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>1</v>
       </c>
@@ -4633,10 +4649,10 @@
         <v>25</v>
       </c>
       <c r="E172" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>1</v>
       </c>
@@ -4650,10 +4666,10 @@
         <v>25</v>
       </c>
       <c r="E173" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>1</v>
       </c>
@@ -4667,10 +4683,10 @@
         <v>25</v>
       </c>
       <c r="E174" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>1</v>
       </c>
@@ -4684,10 +4700,10 @@
         <v>25</v>
       </c>
       <c r="E175" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>1</v>
       </c>
@@ -4701,10 +4717,10 @@
         <v>25</v>
       </c>
       <c r="E176" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>1</v>
       </c>
@@ -4718,10 +4734,10 @@
         <v>25</v>
       </c>
       <c r="E177" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1</v>
       </c>
@@ -4735,10 +4751,10 @@
         <v>25</v>
       </c>
       <c r="E178" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>1</v>
       </c>
@@ -4752,10 +4768,10 @@
         <v>25</v>
       </c>
       <c r="E179" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>1</v>
       </c>
@@ -4769,10 +4785,10 @@
         <v>25</v>
       </c>
       <c r="E180" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>1</v>
       </c>
@@ -4786,10 +4802,10 @@
         <v>25</v>
       </c>
       <c r="E181" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>1</v>
       </c>
@@ -4803,10 +4819,10 @@
         <v>25</v>
       </c>
       <c r="E182" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1</v>
       </c>
@@ -4820,10 +4836,10 @@
         <v>25</v>
       </c>
       <c r="E183" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>1</v>
       </c>
@@ -4837,10 +4853,10 @@
         <v>25</v>
       </c>
       <c r="E184" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>1</v>
       </c>
@@ -4854,10 +4870,10 @@
         <v>25</v>
       </c>
       <c r="E185" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>1</v>
       </c>
@@ -4871,10 +4887,10 @@
         <v>25</v>
       </c>
       <c r="E186" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>1</v>
       </c>
@@ -4888,10 +4904,10 @@
         <v>25</v>
       </c>
       <c r="E187" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>1</v>
       </c>
@@ -4905,10 +4921,10 @@
         <v>25</v>
       </c>
       <c r="E188" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1</v>
       </c>
@@ -4922,10 +4938,10 @@
         <v>25</v>
       </c>
       <c r="E189" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1</v>
       </c>
@@ -4939,10 +4955,10 @@
         <v>25</v>
       </c>
       <c r="E190" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>1</v>
       </c>
@@ -4956,10 +4972,10 @@
         <v>25</v>
       </c>
       <c r="E191" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>1</v>
       </c>
@@ -4973,10 +4989,10 @@
         <v>25</v>
       </c>
       <c r="E192" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>1</v>
       </c>
@@ -4990,10 +5006,10 @@
         <v>25</v>
       </c>
       <c r="E193" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>1</v>
       </c>
@@ -5007,10 +5023,10 @@
         <v>25</v>
       </c>
       <c r="E194" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1</v>
       </c>
@@ -5024,10 +5040,10 @@
         <v>25</v>
       </c>
       <c r="E195" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>1</v>
       </c>
@@ -5041,10 +5057,10 @@
         <v>25</v>
       </c>
       <c r="E196" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1</v>
       </c>
@@ -5058,10 +5074,10 @@
         <v>25</v>
       </c>
       <c r="E197" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1</v>
       </c>
@@ -5075,10 +5091,10 @@
         <v>25</v>
       </c>
       <c r="E198" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>1</v>
       </c>
@@ -5092,10 +5108,10 @@
         <v>25</v>
       </c>
       <c r="E199" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>1</v>
       </c>
@@ -5109,10 +5125,10 @@
         <v>25</v>
       </c>
       <c r="E200" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>1</v>
       </c>
@@ -5126,10 +5142,10 @@
         <v>25</v>
       </c>
       <c r="E201" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>1</v>
       </c>
@@ -5143,10 +5159,10 @@
         <v>26</v>
       </c>
       <c r="E202" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>1</v>
       </c>
@@ -5160,10 +5176,10 @@
         <v>26</v>
       </c>
       <c r="E203" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>1</v>
       </c>
@@ -5177,10 +5193,10 @@
         <v>26</v>
       </c>
       <c r="E204" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>1</v>
       </c>
@@ -5194,10 +5210,10 @@
         <v>26</v>
       </c>
       <c r="E205" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>1</v>
       </c>
@@ -5211,10 +5227,10 @@
         <v>26</v>
       </c>
       <c r="E206" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>1</v>
       </c>
@@ -5228,10 +5244,10 @@
         <v>26</v>
       </c>
       <c r="E207" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>1</v>
       </c>
@@ -5245,10 +5261,10 @@
         <v>26</v>
       </c>
       <c r="E208" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>1</v>
       </c>
@@ -5262,10 +5278,10 @@
         <v>26</v>
       </c>
       <c r="E209" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>1</v>
       </c>
@@ -5279,10 +5295,10 @@
         <v>26</v>
       </c>
       <c r="E210" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>1</v>
       </c>
@@ -5296,10 +5312,10 @@
         <v>27</v>
       </c>
       <c r="E211" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>1</v>
       </c>
@@ -5313,10 +5329,10 @@
         <v>27</v>
       </c>
       <c r="E212" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>1</v>
       </c>
@@ -5330,10 +5346,10 @@
         <v>27</v>
       </c>
       <c r="E213" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>1</v>
       </c>
@@ -5347,10 +5363,10 @@
         <v>30</v>
       </c>
       <c r="E214" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>1</v>
       </c>
@@ -5364,10 +5380,10 @@
         <v>30</v>
       </c>
       <c r="E215" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>1</v>
       </c>
@@ -5381,10 +5397,10 @@
         <v>30</v>
       </c>
       <c r="E216" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>1</v>
       </c>
@@ -5398,10 +5414,10 @@
         <v>30</v>
       </c>
       <c r="E217" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>1</v>
       </c>
@@ -5415,10 +5431,10 @@
         <v>30</v>
       </c>
       <c r="E218" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>1</v>
       </c>
@@ -5432,10 +5448,10 @@
         <v>30</v>
       </c>
       <c r="E219" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>1</v>
       </c>
@@ -5449,10 +5465,10 @@
         <v>30</v>
       </c>
       <c r="E220" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>1</v>
       </c>
@@ -5466,10 +5482,10 @@
         <v>30</v>
       </c>
       <c r="E221" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>1</v>
       </c>
@@ -5483,10 +5499,10 @@
         <v>30</v>
       </c>
       <c r="E222" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>1</v>
       </c>
@@ -5500,10 +5516,10 @@
         <v>30</v>
       </c>
       <c r="E223" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>1</v>
       </c>
@@ -5517,10 +5533,10 @@
         <v>30</v>
       </c>
       <c r="E224" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>1</v>
       </c>
@@ -5534,10 +5550,10 @@
         <v>32</v>
       </c>
       <c r="E225" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>1</v>
       </c>
@@ -5551,10 +5567,10 @@
         <v>32</v>
       </c>
       <c r="E226" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>1</v>
       </c>
@@ -5568,10 +5584,10 @@
         <v>32</v>
       </c>
       <c r="E227" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>1</v>
       </c>
@@ -5585,10 +5601,10 @@
         <v>32</v>
       </c>
       <c r="E228" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>1</v>
       </c>
@@ -5602,10 +5618,10 @@
         <v>32</v>
       </c>
       <c r="E229" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>1</v>
       </c>
@@ -5619,10 +5635,10 @@
         <v>32</v>
       </c>
       <c r="E230" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>1</v>
       </c>
@@ -5636,10 +5652,10 @@
         <v>32</v>
       </c>
       <c r="E231" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>1</v>
       </c>
@@ -5653,10 +5669,10 @@
         <v>32</v>
       </c>
       <c r="E232" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>1</v>
       </c>
@@ -5670,10 +5686,10 @@
         <v>32</v>
       </c>
       <c r="E233" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>1</v>
       </c>
@@ -5687,10 +5703,10 @@
         <v>32</v>
       </c>
       <c r="E234" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>1</v>
       </c>
@@ -5704,10 +5720,10 @@
         <v>32</v>
       </c>
       <c r="E235" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>1</v>
       </c>
@@ -5721,10 +5737,10 @@
         <v>32</v>
       </c>
       <c r="E236" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>1</v>
       </c>
@@ -5738,10 +5754,10 @@
         <v>32</v>
       </c>
       <c r="E237" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>1</v>
       </c>
@@ -5755,10 +5771,10 @@
         <v>32</v>
       </c>
       <c r="E238" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>1</v>
       </c>
@@ -5772,10 +5788,10 @@
         <v>32</v>
       </c>
       <c r="E239" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>1</v>
       </c>
@@ -5789,10 +5805,10 @@
         <v>32</v>
       </c>
       <c r="E240" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>1</v>
       </c>
@@ -5806,10 +5822,10 @@
         <v>32</v>
       </c>
       <c r="E241" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>1</v>
       </c>
@@ -5823,10 +5839,10 @@
         <v>32</v>
       </c>
       <c r="E242" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>1</v>
       </c>
@@ -5840,10 +5856,10 @@
         <v>32</v>
       </c>
       <c r="E243" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>1</v>
       </c>
@@ -5857,10 +5873,10 @@
         <v>32</v>
       </c>
       <c r="E244" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>1</v>
       </c>
@@ -5874,10 +5890,10 @@
         <v>35</v>
       </c>
       <c r="E245" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>1</v>
       </c>
@@ -5891,10 +5907,10 @@
         <v>35</v>
       </c>
       <c r="E246" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>1</v>
       </c>
@@ -5908,10 +5924,10 @@
         <v>35</v>
       </c>
       <c r="E247" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>1</v>
       </c>
@@ -5925,10 +5941,10 @@
         <v>35</v>
       </c>
       <c r="E248" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>1</v>
       </c>
@@ -5942,10 +5958,10 @@
         <v>35</v>
       </c>
       <c r="E249" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>1</v>
       </c>
@@ -5959,10 +5975,10 @@
         <v>35</v>
       </c>
       <c r="E250" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>1</v>
       </c>
@@ -5976,10 +5992,10 @@
         <v>35</v>
       </c>
       <c r="E251" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>1</v>
       </c>
@@ -5993,10 +6009,10 @@
         <v>35</v>
       </c>
       <c r="E252" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>1</v>
       </c>
@@ -6010,10 +6026,10 @@
         <v>35</v>
       </c>
       <c r="E253" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>1</v>
       </c>
@@ -6027,10 +6043,10 @@
         <v>35</v>
       </c>
       <c r="E254" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>1</v>
       </c>
@@ -6044,10 +6060,10 @@
         <v>35</v>
       </c>
       <c r="E255" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>1</v>
       </c>
@@ -6061,10 +6077,10 @@
         <v>35</v>
       </c>
       <c r="E256" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>1</v>
       </c>
@@ -6078,10 +6094,10 @@
         <v>35</v>
       </c>
       <c r="E257" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>1</v>
       </c>
@@ -6095,10 +6111,10 @@
         <v>35</v>
       </c>
       <c r="E258" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>1</v>
       </c>
@@ -6112,10 +6128,10 @@
         <v>35</v>
       </c>
       <c r="E259" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>2</v>
       </c>
@@ -6129,10 +6145,10 @@
         <v>35</v>
       </c>
       <c r="E260" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>2</v>
       </c>
@@ -6146,10 +6162,10 @@
         <v>35</v>
       </c>
       <c r="E261" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>2</v>
       </c>
@@ -6163,10 +6179,10 @@
         <v>35</v>
       </c>
       <c r="E262" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>2</v>
       </c>
@@ -6180,10 +6196,10 @@
         <v>35</v>
       </c>
       <c r="E263" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>2</v>
       </c>
@@ -6197,10 +6213,10 @@
         <v>35</v>
       </c>
       <c r="E264" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>2</v>
       </c>
@@ -6214,10 +6230,10 @@
         <v>35</v>
       </c>
       <c r="E265" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>2</v>
       </c>
@@ -6231,10 +6247,10 @@
         <v>35</v>
       </c>
       <c r="E266" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>2</v>
       </c>
@@ -6248,10 +6264,10 @@
         <v>35</v>
       </c>
       <c r="E267" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>2</v>
       </c>
@@ -6265,10 +6281,10 @@
         <v>35</v>
       </c>
       <c r="E268" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>2</v>
       </c>
@@ -6282,10 +6298,10 @@
         <v>35</v>
       </c>
       <c r="E269" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>2</v>
       </c>
@@ -6299,10 +6315,10 @@
         <v>35</v>
       </c>
       <c r="E270" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>2</v>
       </c>
@@ -6316,10 +6332,10 @@
         <v>35</v>
       </c>
       <c r="E271" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>2</v>
       </c>
@@ -6333,10 +6349,10 @@
         <v>35</v>
       </c>
       <c r="E272" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>2</v>
       </c>
@@ -6350,10 +6366,10 @@
         <v>35</v>
       </c>
       <c r="E273" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>2</v>
       </c>
@@ -6367,10 +6383,10 @@
         <v>35</v>
       </c>
       <c r="E274" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>2</v>
       </c>
@@ -6384,10 +6400,10 @@
         <v>35</v>
       </c>
       <c r="E275" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>2</v>
       </c>
@@ -6401,10 +6417,10 @@
         <v>35</v>
       </c>
       <c r="E276" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>2</v>
       </c>
@@ -6418,10 +6434,10 @@
         <v>35</v>
       </c>
       <c r="E277" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>2</v>
       </c>
@@ -6435,10 +6451,10 @@
         <v>35</v>
       </c>
       <c r="E278" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>2</v>
       </c>
@@ -6452,10 +6468,10 @@
         <v>35</v>
       </c>
       <c r="E279" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>2</v>
       </c>
@@ -6469,10 +6485,10 @@
         <v>35</v>
       </c>
       <c r="E280" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>2</v>
       </c>
@@ -6486,10 +6502,10 @@
         <v>35</v>
       </c>
       <c r="E281" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>2</v>
       </c>
@@ -6503,10 +6519,10 @@
         <v>35</v>
       </c>
       <c r="E282" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>2</v>
       </c>
@@ -6520,10 +6536,10 @@
         <v>35</v>
       </c>
       <c r="E283" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>2</v>
       </c>
@@ -6537,10 +6553,10 @@
         <v>35</v>
       </c>
       <c r="E284" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>2</v>
       </c>
@@ -6554,10 +6570,10 @@
         <v>35</v>
       </c>
       <c r="E285" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>2</v>
       </c>
@@ -6571,10 +6587,10 @@
         <v>35</v>
       </c>
       <c r="E286" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>2</v>
       </c>
@@ -6588,10 +6604,10 @@
         <v>36</v>
       </c>
       <c r="E287" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>2</v>
       </c>
@@ -6605,10 +6621,10 @@
         <v>36</v>
       </c>
       <c r="E288" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>2</v>
       </c>
@@ -6622,10 +6638,10 @@
         <v>36</v>
       </c>
       <c r="E289" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>2</v>
       </c>
@@ -6639,10 +6655,10 @@
         <v>39</v>
       </c>
       <c r="E290" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>2</v>
       </c>
@@ -6656,10 +6672,10 @@
         <v>39</v>
       </c>
       <c r="E291" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>2</v>
       </c>
@@ -6673,10 +6689,10 @@
         <v>39</v>
       </c>
       <c r="E292" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>2</v>
       </c>
@@ -6690,10 +6706,10 @@
         <v>39</v>
       </c>
       <c r="E293" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>2</v>
       </c>
@@ -6707,10 +6723,10 @@
         <v>39</v>
       </c>
       <c r="E294" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>2</v>
       </c>
@@ -6724,10 +6740,10 @@
         <v>39</v>
       </c>
       <c r="E295" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>2</v>
       </c>
@@ -6741,10 +6757,10 @@
         <v>39</v>
       </c>
       <c r="E296" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>2</v>
       </c>
@@ -6758,10 +6774,10 @@
         <v>39</v>
       </c>
       <c r="E297" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>2</v>
       </c>
@@ -6775,10 +6791,10 @@
         <v>39</v>
       </c>
       <c r="E298" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>2</v>
       </c>
@@ -6792,10 +6808,10 @@
         <v>39</v>
       </c>
       <c r="E299" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>2</v>
       </c>
@@ -6809,10 +6825,10 @@
         <v>39</v>
       </c>
       <c r="E300" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>2</v>
       </c>
@@ -6826,10 +6842,10 @@
         <v>39</v>
       </c>
       <c r="E301" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>2</v>
       </c>
@@ -6843,10 +6859,10 @@
         <v>39</v>
       </c>
       <c r="E302" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>2</v>
       </c>
@@ -6860,10 +6876,10 @@
         <v>39</v>
       </c>
       <c r="E303" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>2</v>
       </c>
@@ -6877,10 +6893,10 @@
         <v>39</v>
       </c>
       <c r="E304" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>2</v>
       </c>
@@ -6894,10 +6910,10 @@
         <v>39</v>
       </c>
       <c r="E305" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>2</v>
       </c>
@@ -6911,10 +6927,10 @@
         <v>39</v>
       </c>
       <c r="E306" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>2</v>
       </c>
@@ -6928,10 +6944,10 @@
         <v>39</v>
       </c>
       <c r="E307" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>2</v>
       </c>
@@ -6945,10 +6961,10 @@
         <v>39</v>
       </c>
       <c r="E308" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>2</v>
       </c>
@@ -6962,10 +6978,10 @@
         <v>39</v>
       </c>
       <c r="E309" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>2</v>
       </c>
@@ -6979,10 +6995,10 @@
         <v>39</v>
       </c>
       <c r="E310" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>2</v>
       </c>
@@ -6996,10 +7012,10 @@
         <v>39</v>
       </c>
       <c r="E311" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>2</v>
       </c>
@@ -7013,10 +7029,10 @@
         <v>39</v>
       </c>
       <c r="E312" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>2</v>
       </c>
@@ -7030,10 +7046,10 @@
         <v>39</v>
       </c>
       <c r="E313" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>2</v>
       </c>
@@ -7047,10 +7063,10 @@
         <v>39</v>
       </c>
       <c r="E314" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>2</v>
       </c>
@@ -7064,10 +7080,10 @@
         <v>39</v>
       </c>
       <c r="E315" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>2</v>
       </c>
@@ -7081,10 +7097,10 @@
         <v>39</v>
       </c>
       <c r="E316" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>2</v>
       </c>
@@ -7098,10 +7114,10 @@
         <v>39</v>
       </c>
       <c r="E317" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>2</v>
       </c>
@@ -7115,10 +7131,10 @@
         <v>39</v>
       </c>
       <c r="E318" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>2</v>
       </c>
@@ -7132,10 +7148,10 @@
         <v>42</v>
       </c>
       <c r="E319" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>2</v>
       </c>
@@ -7149,10 +7165,10 @@
         <v>42</v>
       </c>
       <c r="E320" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>2</v>
       </c>
@@ -7166,10 +7182,10 @@
         <v>42</v>
       </c>
       <c r="E321" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>2</v>
       </c>
@@ -7183,10 +7199,10 @@
         <v>42</v>
       </c>
       <c r="E322" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>2</v>
       </c>
@@ -7200,10 +7216,10 @@
         <v>42</v>
       </c>
       <c r="E323" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>2</v>
       </c>
@@ -7217,10 +7233,10 @@
         <v>42</v>
       </c>
       <c r="E324" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>2</v>
       </c>
@@ -7234,10 +7250,10 @@
         <v>42</v>
       </c>
       <c r="E325" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>2</v>
       </c>
@@ -7251,10 +7267,10 @@
         <v>42</v>
       </c>
       <c r="E326" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>2</v>
       </c>
@@ -7268,10 +7284,10 @@
         <v>42</v>
       </c>
       <c r="E327" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>2</v>
       </c>
@@ -7285,10 +7301,10 @@
         <v>42</v>
       </c>
       <c r="E328" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>2</v>
       </c>
@@ -7302,10 +7318,10 @@
         <v>42</v>
       </c>
       <c r="E329" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>2</v>
       </c>
@@ -7319,10 +7335,10 @@
         <v>42</v>
       </c>
       <c r="E330" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>2</v>
       </c>
@@ -7336,10 +7352,10 @@
         <v>42</v>
       </c>
       <c r="E331" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>2</v>
       </c>
@@ -7353,10 +7369,10 @@
         <v>42</v>
       </c>
       <c r="E332" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>2</v>
       </c>
@@ -7370,10 +7386,10 @@
         <v>42</v>
       </c>
       <c r="E333" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>2</v>
       </c>
@@ -7387,10 +7403,10 @@
         <v>42</v>
       </c>
       <c r="E334" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>2</v>
       </c>
@@ -7404,10 +7420,10 @@
         <v>42</v>
       </c>
       <c r="E335" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>2</v>
       </c>
@@ -7421,10 +7437,10 @@
         <v>42</v>
       </c>
       <c r="E336" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>2</v>
       </c>
@@ -7438,10 +7454,10 @@
         <v>42</v>
       </c>
       <c r="E337" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>2</v>
       </c>
@@ -7455,10 +7471,10 @@
         <v>42</v>
       </c>
       <c r="E338" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>2</v>
       </c>
@@ -7472,10 +7488,10 @@
         <v>42</v>
       </c>
       <c r="E339" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>2</v>
       </c>
@@ -7489,10 +7505,10 @@
         <v>42</v>
       </c>
       <c r="E340" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>2</v>
       </c>
@@ -7506,10 +7522,10 @@
         <v>42</v>
       </c>
       <c r="E341" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>2</v>
       </c>
@@ -7523,10 +7539,10 @@
         <v>42</v>
       </c>
       <c r="E342" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>2</v>
       </c>
@@ -7540,10 +7556,10 @@
         <v>42</v>
       </c>
       <c r="E343" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>2</v>
       </c>
@@ -7557,10 +7573,10 @@
         <v>42</v>
       </c>
       <c r="E344" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>2</v>
       </c>
@@ -7574,10 +7590,10 @@
         <v>42</v>
       </c>
       <c r="E345" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>2</v>
       </c>
@@ -7591,10 +7607,10 @@
         <v>42</v>
       </c>
       <c r="E346" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>2</v>
       </c>
@@ -7608,10 +7624,10 @@
         <v>42</v>
       </c>
       <c r="E347" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>2</v>
       </c>
@@ -7625,10 +7641,10 @@
         <v>42</v>
       </c>
       <c r="E348" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>2</v>
       </c>
@@ -7642,10 +7658,10 @@
         <v>42</v>
       </c>
       <c r="E349" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>2</v>
       </c>
@@ -7659,10 +7675,10 @@
         <v>42</v>
       </c>
       <c r="E350" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>2</v>
       </c>
@@ -7676,10 +7692,10 @@
         <v>42</v>
       </c>
       <c r="E351" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>2</v>
       </c>
@@ -7693,10 +7709,10 @@
         <v>42</v>
       </c>
       <c r="E352" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="353" spans="1:5">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>2</v>
       </c>
@@ -7710,10 +7726,10 @@
         <v>42</v>
       </c>
       <c r="E353" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>2</v>
       </c>
@@ -7727,10 +7743,10 @@
         <v>42</v>
       </c>
       <c r="E354" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>2</v>
       </c>
@@ -7744,10 +7760,10 @@
         <v>42</v>
       </c>
       <c r="E355" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>2</v>
       </c>
@@ -7761,10 +7777,10 @@
         <v>42</v>
       </c>
       <c r="E356" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>2</v>
       </c>
@@ -7778,10 +7794,10 @@
         <v>42</v>
       </c>
       <c r="E357" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>2</v>
       </c>
@@ -7795,10 +7811,10 @@
         <v>42</v>
       </c>
       <c r="E358" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="359" spans="1:5">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>2</v>
       </c>
@@ -7812,10 +7828,10 @@
         <v>42</v>
       </c>
       <c r="E359" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>2</v>
       </c>
@@ -7829,10 +7845,10 @@
         <v>42</v>
       </c>
       <c r="E360" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>2</v>
       </c>
@@ -7846,10 +7862,10 @@
         <v>43</v>
       </c>
       <c r="E361" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>2</v>
       </c>
@@ -7863,10 +7879,10 @@
         <v>43</v>
       </c>
       <c r="E362" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>2</v>
       </c>
@@ -7880,10 +7896,10 @@
         <v>43</v>
       </c>
       <c r="E363" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="364" spans="1:5">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>2</v>
       </c>
@@ -7897,10 +7913,10 @@
         <v>44</v>
       </c>
       <c r="E364" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="365" spans="1:5">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>2</v>
       </c>
@@ -7914,10 +7930,10 @@
         <v>44</v>
       </c>
       <c r="E365" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="366" spans="1:5">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>2</v>
       </c>
@@ -7931,10 +7947,10 @@
         <v>44</v>
       </c>
       <c r="E366" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>2</v>
       </c>
@@ -7948,10 +7964,10 @@
         <v>44</v>
       </c>
       <c r="E367" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="368" spans="1:5">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>2</v>
       </c>
@@ -7965,10 +7981,10 @@
         <v>44</v>
       </c>
       <c r="E368" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="369" spans="1:5">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>2</v>
       </c>
@@ -7982,10 +7998,10 @@
         <v>44</v>
       </c>
       <c r="E369" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="370" spans="1:5">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>2</v>
       </c>
@@ -7999,10 +8015,10 @@
         <v>44</v>
       </c>
       <c r="E370" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="371" spans="1:5">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>2</v>
       </c>
@@ -8016,10 +8032,10 @@
         <v>44</v>
       </c>
       <c r="E371" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="372" spans="1:5">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>2</v>
       </c>
@@ -8033,10 +8049,10 @@
         <v>44</v>
       </c>
       <c r="E372" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="373" spans="1:5">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>2</v>
       </c>
@@ -8050,10 +8066,10 @@
         <v>44</v>
       </c>
       <c r="E373" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="374" spans="1:5">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>2</v>
       </c>
@@ -8067,10 +8083,10 @@
         <v>44</v>
       </c>
       <c r="E374" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="375" spans="1:5">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>2</v>
       </c>
@@ -8084,10 +8100,10 @@
         <v>44</v>
       </c>
       <c r="E375" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="376" spans="1:5">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>2</v>
       </c>
@@ -8101,10 +8117,10 @@
         <v>44</v>
       </c>
       <c r="E376" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="377" spans="1:5">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>2</v>
       </c>
@@ -8118,10 +8134,10 @@
         <v>44</v>
       </c>
       <c r="E377" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="378" spans="1:5">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>2</v>
       </c>
@@ -8135,10 +8151,10 @@
         <v>44</v>
       </c>
       <c r="E378" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="379" spans="1:5">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>2</v>
       </c>
@@ -8152,10 +8168,10 @@
         <v>44</v>
       </c>
       <c r="E379" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="380" spans="1:5">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>2</v>
       </c>
@@ -8169,10 +8185,10 @@
         <v>44</v>
       </c>
       <c r="E380" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="381" spans="1:5">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>2</v>
       </c>
@@ -8186,10 +8202,10 @@
         <v>44</v>
       </c>
       <c r="E381" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="382" spans="1:5">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>2</v>
       </c>
@@ -8203,10 +8219,10 @@
         <v>46</v>
       </c>
       <c r="E382" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="383" spans="1:5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>2</v>
       </c>
@@ -8220,10 +8236,10 @@
         <v>46</v>
       </c>
       <c r="E383" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="384" spans="1:5">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>2</v>
       </c>
@@ -8237,10 +8253,10 @@
         <v>46</v>
       </c>
       <c r="E384" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="385" spans="1:5">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>2</v>
       </c>
@@ -8254,10 +8270,10 @@
         <v>46</v>
       </c>
       <c r="E385" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="386" spans="1:5">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>2</v>
       </c>
@@ -8271,10 +8287,10 @@
         <v>46</v>
       </c>
       <c r="E386" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="387" spans="1:5">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>2</v>
       </c>
@@ -8288,10 +8304,10 @@
         <v>46</v>
       </c>
       <c r="E387" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="388" spans="1:5">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>2</v>
       </c>
@@ -8305,10 +8321,10 @@
         <v>46</v>
       </c>
       <c r="E388" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="389" spans="1:5">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>2</v>
       </c>
@@ -8322,10 +8338,10 @@
         <v>46</v>
       </c>
       <c r="E389" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="390" spans="1:5">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>2</v>
       </c>
@@ -8339,10 +8355,10 @@
         <v>46</v>
       </c>
       <c r="E390" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="391" spans="1:5">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>2</v>
       </c>
@@ -8356,10 +8372,10 @@
         <v>48</v>
       </c>
       <c r="E391" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="392" spans="1:5">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>2</v>
       </c>
@@ -8373,10 +8389,10 @@
         <v>48</v>
       </c>
       <c r="E392" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="393" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>2</v>
       </c>
@@ -8390,10 +8406,10 @@
         <v>48</v>
       </c>
       <c r="E393" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="394" spans="1:5">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>2</v>
       </c>
@@ -8407,10 +8423,10 @@
         <v>48</v>
       </c>
       <c r="E394" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="395" spans="1:5">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>2</v>
       </c>
@@ -8424,10 +8440,10 @@
         <v>48</v>
       </c>
       <c r="E395" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="396" spans="1:5">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>2</v>
       </c>
@@ -8441,10 +8457,10 @@
         <v>48</v>
       </c>
       <c r="E396" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="397" spans="1:5">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>2</v>
       </c>
@@ -8458,10 +8474,10 @@
         <v>48</v>
       </c>
       <c r="E397" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="398" spans="1:5">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>2</v>
       </c>
@@ -8475,10 +8491,10 @@
         <v>48</v>
       </c>
       <c r="E398" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="399" spans="1:5">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>2</v>
       </c>
@@ -8492,10 +8508,10 @@
         <v>48</v>
       </c>
       <c r="E399" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="400" spans="1:5">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>2</v>
       </c>
@@ -8509,10 +8525,10 @@
         <v>48</v>
       </c>
       <c r="E400" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="401" spans="1:5">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>2</v>
       </c>
@@ -8526,10 +8542,10 @@
         <v>48</v>
       </c>
       <c r="E401" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="402" spans="1:5">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>2</v>
       </c>
@@ -8543,10 +8559,10 @@
         <v>48</v>
       </c>
       <c r="E402" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="403" spans="1:5">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>2</v>
       </c>
@@ -8560,10 +8576,10 @@
         <v>48</v>
       </c>
       <c r="E403" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="404" spans="1:5">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>2</v>
       </c>
@@ -8577,10 +8593,10 @@
         <v>48</v>
       </c>
       <c r="E404" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="405" spans="1:5">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>2</v>
       </c>
@@ -8594,10 +8610,10 @@
         <v>48</v>
       </c>
       <c r="E405" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="406" spans="1:5">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>2</v>
       </c>
@@ -8611,10 +8627,10 @@
         <v>48</v>
       </c>
       <c r="E406" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="407" spans="1:5">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>2</v>
       </c>
@@ -8628,10 +8644,10 @@
         <v>48</v>
       </c>
       <c r="E407" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="408" spans="1:5">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>2</v>
       </c>
@@ -8645,10 +8661,10 @@
         <v>48</v>
       </c>
       <c r="E408" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="409" spans="1:5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>2</v>
       </c>
@@ -8662,10 +8678,10 @@
         <v>48</v>
       </c>
       <c r="E409" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="410" spans="1:5">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>2</v>
       </c>
@@ -8679,10 +8695,10 @@
         <v>48</v>
       </c>
       <c r="E410" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="411" spans="1:5">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>2</v>
       </c>
@@ -8696,10 +8712,10 @@
         <v>48</v>
       </c>
       <c r="E411" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="412" spans="1:5">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>2</v>
       </c>
@@ -8713,10 +8729,10 @@
         <v>48</v>
       </c>
       <c r="E412" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="413" spans="1:5">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>2</v>
       </c>
@@ -8730,10 +8746,10 @@
         <v>48</v>
       </c>
       <c r="E413" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="414" spans="1:5">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>2</v>
       </c>
@@ -8747,10 +8763,10 @@
         <v>48</v>
       </c>
       <c r="E414" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="415" spans="1:5">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>2</v>
       </c>
@@ -8764,10 +8780,10 @@
         <v>48</v>
       </c>
       <c r="E415" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="416" spans="1:5">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>2</v>
       </c>
@@ -8781,10 +8797,10 @@
         <v>48</v>
       </c>
       <c r="E416" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="417" spans="1:5">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>2</v>
       </c>
@@ -8798,10 +8814,10 @@
         <v>48</v>
       </c>
       <c r="E417" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="418" spans="1:5">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>2</v>
       </c>
@@ -8815,10 +8831,10 @@
         <v>48</v>
       </c>
       <c r="E418" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="419" spans="1:5">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>2</v>
       </c>
@@ -8832,10 +8848,10 @@
         <v>48</v>
       </c>
       <c r="E419" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="420" spans="1:5">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>2</v>
       </c>
@@ -8849,10 +8865,10 @@
         <v>48</v>
       </c>
       <c r="E420" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="421" spans="1:5">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>2</v>
       </c>
@@ -8866,10 +8882,10 @@
         <v>48</v>
       </c>
       <c r="E421" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="422" spans="1:5">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>2</v>
       </c>
@@ -8883,10 +8899,10 @@
         <v>48</v>
       </c>
       <c r="E422" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="423" spans="1:5">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>2</v>
       </c>
@@ -8900,10 +8916,10 @@
         <v>48</v>
       </c>
       <c r="E423" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="424" spans="1:5">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>2</v>
       </c>
@@ -8917,10 +8933,10 @@
         <v>48</v>
       </c>
       <c r="E424" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="425" spans="1:5">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>2</v>
       </c>
@@ -8934,10 +8950,10 @@
         <v>48</v>
       </c>
       <c r="E425" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="426" spans="1:5">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>2</v>
       </c>
@@ -8951,10 +8967,10 @@
         <v>48</v>
       </c>
       <c r="E426" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="427" spans="1:5">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>2</v>
       </c>
@@ -8968,10 +8984,10 @@
         <v>48</v>
       </c>
       <c r="E427" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="428" spans="1:5">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>2</v>
       </c>
@@ -8985,10 +9001,10 @@
         <v>48</v>
       </c>
       <c r="E428" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="429" spans="1:5">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>2</v>
       </c>
@@ -9002,10 +9018,10 @@
         <v>48</v>
       </c>
       <c r="E429" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="430" spans="1:5">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>2</v>
       </c>
@@ -9019,10 +9035,10 @@
         <v>48</v>
       </c>
       <c r="E430" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="431" spans="1:5">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>2</v>
       </c>
@@ -9036,10 +9052,10 @@
         <v>50</v>
       </c>
       <c r="E431" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="432" spans="1:5">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>2</v>
       </c>
@@ -9053,10 +9069,10 @@
         <v>50</v>
       </c>
       <c r="E432" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="433" spans="1:5">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>2</v>
       </c>
@@ -9070,10 +9086,10 @@
         <v>50</v>
       </c>
       <c r="E433" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="434" spans="1:5">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>2</v>
       </c>
@@ -9087,10 +9103,10 @@
         <v>50</v>
       </c>
       <c r="E434" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="435" spans="1:5">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>2</v>
       </c>
@@ -9104,10 +9120,10 @@
         <v>50</v>
       </c>
       <c r="E435" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="436" spans="1:5">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>2</v>
       </c>
@@ -9121,10 +9137,10 @@
         <v>50</v>
       </c>
       <c r="E436" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="437" spans="1:5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>2</v>
       </c>
@@ -9138,10 +9154,10 @@
         <v>50</v>
       </c>
       <c r="E437" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="438" spans="1:5">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>2</v>
       </c>
@@ -9155,10 +9171,10 @@
         <v>50</v>
       </c>
       <c r="E438" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="439" spans="1:5">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>2</v>
       </c>
@@ -9172,10 +9188,10 @@
         <v>50</v>
       </c>
       <c r="E439" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="440" spans="1:5">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>2</v>
       </c>
@@ -9189,10 +9205,10 @@
         <v>50</v>
       </c>
       <c r="E440" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="441" spans="1:5">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>2</v>
       </c>
@@ -9206,10 +9222,10 @@
         <v>50</v>
       </c>
       <c r="E441" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="442" spans="1:5">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>2</v>
       </c>
@@ -9223,10 +9239,10 @@
         <v>50</v>
       </c>
       <c r="E442" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="443" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>2</v>
       </c>
@@ -9240,10 +9256,10 @@
         <v>50</v>
       </c>
       <c r="E443" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="444" spans="1:5">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>2</v>
       </c>
@@ -9257,10 +9273,10 @@
         <v>50</v>
       </c>
       <c r="E444" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="445" spans="1:5">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>2</v>
       </c>
@@ -9274,10 +9290,10 @@
         <v>50</v>
       </c>
       <c r="E445" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="446" spans="1:5">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>2</v>
       </c>
@@ -9291,10 +9307,10 @@
         <v>52</v>
       </c>
       <c r="E446" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="447" spans="1:5">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>2</v>
       </c>
@@ -9308,10 +9324,10 @@
         <v>52</v>
       </c>
       <c r="E447" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="448" spans="1:5">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>2</v>
       </c>
@@ -9325,10 +9341,10 @@
         <v>52</v>
       </c>
       <c r="E448" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="449" spans="1:5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>2</v>
       </c>
@@ -9342,10 +9358,10 @@
         <v>52</v>
       </c>
       <c r="E449" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="450" spans="1:5">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>2</v>
       </c>
@@ -9359,10 +9375,10 @@
         <v>52</v>
       </c>
       <c r="E450" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="451" spans="1:5">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>2</v>
       </c>
@@ -9376,10 +9392,10 @@
         <v>52</v>
       </c>
       <c r="E451" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="452" spans="1:5">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>2</v>
       </c>
@@ -9393,10 +9409,10 @@
         <v>52</v>
       </c>
       <c r="E452" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="453" spans="1:5">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>2</v>
       </c>
@@ -9410,10 +9426,10 @@
         <v>52</v>
       </c>
       <c r="E453" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="454" spans="1:5">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>2</v>
       </c>
@@ -9427,10 +9443,10 @@
         <v>52</v>
       </c>
       <c r="E454" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="455" spans="1:5">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>2</v>
       </c>
@@ -9444,10 +9460,10 @@
         <v>52</v>
       </c>
       <c r="E455" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="456" spans="1:5">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>2</v>
       </c>
@@ -9461,10 +9477,10 @@
         <v>52</v>
       </c>
       <c r="E456" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="457" spans="1:5">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>2</v>
       </c>
@@ -9478,10 +9494,10 @@
         <v>52</v>
       </c>
       <c r="E457" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="458" spans="1:5">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>2</v>
       </c>
@@ -9495,10 +9511,10 @@
         <v>52</v>
       </c>
       <c r="E458" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="459" spans="1:5">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>2</v>
       </c>
@@ -9512,10 +9528,10 @@
         <v>54</v>
       </c>
       <c r="E459" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="460" spans="1:5">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>2</v>
       </c>
@@ -9529,10 +9545,10 @@
         <v>54</v>
       </c>
       <c r="E460" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="461" spans="1:5">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>2</v>
       </c>
@@ -9546,10 +9562,10 @@
         <v>54</v>
       </c>
       <c r="E461" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="462" spans="1:5">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>2</v>
       </c>
@@ -9563,10 +9579,10 @@
         <v>54</v>
       </c>
       <c r="E462" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="463" spans="1:5">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>2</v>
       </c>
@@ -9580,10 +9596,10 @@
         <v>54</v>
       </c>
       <c r="E463" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="464" spans="1:5">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>2</v>
       </c>
@@ -9597,10 +9613,10 @@
         <v>54</v>
       </c>
       <c r="E464" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="465" spans="1:5">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>2</v>
       </c>
@@ -9614,10 +9630,10 @@
         <v>54</v>
       </c>
       <c r="E465" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="466" spans="1:5">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>2</v>
       </c>
@@ -9631,10 +9647,10 @@
         <v>54</v>
       </c>
       <c r="E466" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="467" spans="1:5">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>2</v>
       </c>
@@ -9648,10 +9664,10 @@
         <v>54</v>
       </c>
       <c r="E467" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="468" spans="1:5">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>2</v>
       </c>
@@ -9665,10 +9681,10 @@
         <v>55</v>
       </c>
       <c r="E468" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="469" spans="1:5">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>2</v>
       </c>
@@ -9682,10 +9698,10 @@
         <v>55</v>
       </c>
       <c r="E469" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="470" spans="1:5">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>2</v>
       </c>
@@ -9699,10 +9715,10 @@
         <v>55</v>
       </c>
       <c r="E470" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="471" spans="1:5">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>2</v>
       </c>
@@ -9716,10 +9732,10 @@
         <v>55</v>
       </c>
       <c r="E471" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="472" spans="1:5">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>2</v>
       </c>
@@ -9733,10 +9749,10 @@
         <v>55</v>
       </c>
       <c r="E472" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="473" spans="1:5">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>2</v>
       </c>
@@ -9750,10 +9766,10 @@
         <v>55</v>
       </c>
       <c r="E473" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="474" spans="1:5">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>2</v>
       </c>
@@ -9767,10 +9783,10 @@
         <v>55</v>
       </c>
       <c r="E474" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="475" spans="1:5">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>2</v>
       </c>
@@ -9784,10 +9800,10 @@
         <v>55</v>
       </c>
       <c r="E475" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="476" spans="1:5">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>2</v>
       </c>
@@ -9801,10 +9817,10 @@
         <v>55</v>
       </c>
       <c r="E476" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="477" spans="1:5">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>2</v>
       </c>
@@ -9818,10 +9834,10 @@
         <v>56</v>
       </c>
       <c r="E477" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="478" spans="1:5">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>2</v>
       </c>
@@ -9835,10 +9851,10 @@
         <v>56</v>
       </c>
       <c r="E478" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="479" spans="1:5">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>2</v>
       </c>
@@ -9852,10 +9868,10 @@
         <v>56</v>
       </c>
       <c r="E479" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="480" spans="1:5">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>2</v>
       </c>
@@ -9869,10 +9885,10 @@
         <v>56</v>
       </c>
       <c r="E480" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="481" spans="1:5">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>2</v>
       </c>
@@ -9886,10 +9902,10 @@
         <v>56</v>
       </c>
       <c r="E481" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="482" spans="1:5">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>2</v>
       </c>
@@ -9903,10 +9919,10 @@
         <v>57</v>
       </c>
       <c r="E482" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="483" spans="1:5">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>2</v>
       </c>
@@ -9920,10 +9936,10 @@
         <v>57</v>
       </c>
       <c r="E483" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="484" spans="1:5">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>2</v>
       </c>
@@ -9937,10 +9953,10 @@
         <v>57</v>
       </c>
       <c r="E484" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="485" spans="1:5">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>2</v>
       </c>
@@ -9954,10 +9970,10 @@
         <v>57</v>
       </c>
       <c r="E485" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="486" spans="1:5">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>2</v>
       </c>
@@ -9971,10 +9987,10 @@
         <v>59</v>
       </c>
       <c r="E486" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="487" spans="1:5">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>2</v>
       </c>
@@ -9988,10 +10004,10 @@
         <v>59</v>
       </c>
       <c r="E487" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="488" spans="1:5">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>2</v>
       </c>
@@ -10005,10 +10021,10 @@
         <v>59</v>
       </c>
       <c r="E488" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="489" spans="1:5">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>2</v>
       </c>
@@ -10022,10 +10038,10 @@
         <v>61</v>
       </c>
       <c r="E489" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="490" spans="1:5">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>2</v>
       </c>
@@ -10039,10 +10055,10 @@
         <v>61</v>
       </c>
       <c r="E490" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="491" spans="1:5">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>2</v>
       </c>
@@ -10056,10 +10072,10 @@
         <v>61</v>
       </c>
       <c r="E491" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="492" spans="1:5">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>2</v>
       </c>
@@ -10073,10 +10089,10 @@
         <v>61</v>
       </c>
       <c r="E492" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="493" spans="1:5">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>2</v>
       </c>
@@ -10090,10 +10106,10 @@
         <v>61</v>
       </c>
       <c r="E493" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="494" spans="1:5">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>2</v>
       </c>
@@ -10107,10 +10123,10 @@
         <v>62</v>
       </c>
       <c r="E494" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="495" spans="1:5">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>2</v>
       </c>
@@ -10124,10 +10140,10 @@
         <v>62</v>
       </c>
       <c r="E495" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="496" spans="1:5">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>2</v>
       </c>
@@ -10141,10 +10157,10 @@
         <v>62</v>
       </c>
       <c r="E496" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="497" spans="1:5">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>2</v>
       </c>
@@ -10158,10 +10174,10 @@
         <v>62</v>
       </c>
       <c r="E497" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="498" spans="1:5">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>2</v>
       </c>
@@ -10175,10 +10191,10 @@
         <v>62</v>
       </c>
       <c r="E498" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="499" spans="1:5">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>2</v>
       </c>
@@ -10192,10 +10208,10 @@
         <v>62</v>
       </c>
       <c r="E499" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="500" spans="1:5">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>2</v>
       </c>
@@ -10209,10 +10225,10 @@
         <v>62</v>
       </c>
       <c r="E500" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="501" spans="1:5">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>2</v>
       </c>
@@ -10226,10 +10242,10 @@
         <v>62</v>
       </c>
       <c r="E501" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="502" spans="1:5">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>2</v>
       </c>
@@ -10243,10 +10259,10 @@
         <v>62</v>
       </c>
       <c r="E502" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="503" spans="1:5">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>2</v>
       </c>
@@ -10260,10 +10276,10 @@
         <v>62</v>
       </c>
       <c r="E503" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="504" spans="1:5">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>2</v>
       </c>
@@ -10277,10 +10293,10 @@
         <v>62</v>
       </c>
       <c r="E504" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="505" spans="1:5">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>2</v>
       </c>
@@ -10294,10 +10310,10 @@
         <v>63</v>
       </c>
       <c r="E505" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="506" spans="1:5">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>2</v>
       </c>
@@ -10311,10 +10327,10 @@
         <v>63</v>
       </c>
       <c r="E506" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="507" spans="1:5">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>2</v>
       </c>
@@ -10328,10 +10344,10 @@
         <v>63</v>
       </c>
       <c r="E507" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="508" spans="1:5">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>2</v>
       </c>
@@ -10345,10 +10361,10 @@
         <v>64</v>
       </c>
       <c r="E508" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="509" spans="1:5">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>2</v>
       </c>
@@ -10362,10 +10378,10 @@
         <v>64</v>
       </c>
       <c r="E509" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="510" spans="1:5">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>2</v>
       </c>
@@ -10379,10 +10395,10 @@
         <v>64</v>
       </c>
       <c r="E510" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="511" spans="1:5">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>2</v>
       </c>
@@ -10396,10 +10412,10 @@
         <v>64</v>
       </c>
       <c r="E511" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="512" spans="1:5">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>2</v>
       </c>
@@ -10413,10 +10429,10 @@
         <v>64</v>
       </c>
       <c r="E512" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="513" spans="1:5">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>2</v>
       </c>
@@ -10430,10 +10446,10 @@
         <v>64</v>
       </c>
       <c r="E513" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="514" spans="1:5">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>2</v>
       </c>
@@ -10447,10 +10463,10 @@
         <v>65</v>
       </c>
       <c r="E514" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="515" spans="1:5">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>2</v>
       </c>
@@ -10464,10 +10480,10 @@
         <v>65</v>
       </c>
       <c r="E515" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="516" spans="1:5">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>2</v>
       </c>
@@ -10481,10 +10497,10 @@
         <v>65</v>
       </c>
       <c r="E516" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="517" spans="1:5">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>2</v>
       </c>
@@ -10498,10 +10514,10 @@
         <v>65</v>
       </c>
       <c r="E517" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="518" spans="1:5">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>2</v>
       </c>
@@ -10515,10 +10531,10 @@
         <v>66</v>
       </c>
       <c r="E518" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="519" spans="1:5">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>2</v>
       </c>
@@ -10532,10 +10548,10 @@
         <v>66</v>
       </c>
       <c r="E519" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="520" spans="1:5">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>2</v>
       </c>
@@ -10549,10 +10565,10 @@
         <v>66</v>
       </c>
       <c r="E520" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="521" spans="1:5">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>2</v>
       </c>
@@ -10566,10 +10582,10 @@
         <v>66</v>
       </c>
       <c r="E521" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="522" spans="1:5">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>2</v>
       </c>
@@ -10583,10 +10599,10 @@
         <v>66</v>
       </c>
       <c r="E522" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="523" spans="1:5">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>2</v>
       </c>
@@ -10600,10 +10616,10 @@
         <v>66</v>
       </c>
       <c r="E523" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="524" spans="1:5">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>2</v>
       </c>
@@ -10617,10 +10633,10 @@
         <v>66</v>
       </c>
       <c r="E524" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="525" spans="1:5">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>2</v>
       </c>
@@ -10634,10 +10650,10 @@
         <v>66</v>
       </c>
       <c r="E525" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="526" spans="1:5">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>2</v>
       </c>
@@ -10651,10 +10667,10 @@
         <v>66</v>
       </c>
       <c r="E526" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="527" spans="1:5">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>2</v>
       </c>
@@ -10668,10 +10684,10 @@
         <v>66</v>
       </c>
       <c r="E527" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="528" spans="1:5">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>2</v>
       </c>
@@ -10685,10 +10701,10 @@
         <v>66</v>
       </c>
       <c r="E528" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="529" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>2</v>
       </c>
@@ -10702,10 +10718,10 @@
         <v>66</v>
       </c>
       <c r="E529" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="530" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>2</v>
       </c>
@@ -10719,10 +10735,10 @@
         <v>66</v>
       </c>
       <c r="E530" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="531" spans="1:5">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>2</v>
       </c>
@@ -10739,7 +10755,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="532" spans="1:5">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>2</v>
       </c>
@@ -10753,10 +10769,10 @@
         <v>66</v>
       </c>
       <c r="E532" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="533" spans="1:5">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>2</v>
       </c>
@@ -10770,10 +10786,10 @@
         <v>66</v>
       </c>
       <c r="E533" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="534" spans="1:5">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>2</v>
       </c>
@@ -10787,10 +10803,10 @@
         <v>66</v>
       </c>
       <c r="E534" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="535" spans="1:5">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>2</v>
       </c>
@@ -10804,10 +10820,10 @@
         <v>66</v>
       </c>
       <c r="E535" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="536" spans="1:5">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>2</v>
       </c>
@@ -10821,10 +10837,10 @@
         <v>66</v>
       </c>
       <c r="E536" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="537" spans="1:5">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>2</v>
       </c>
@@ -10838,10 +10854,10 @@
         <v>66</v>
       </c>
       <c r="E537" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="538" spans="1:5">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>2</v>
       </c>
@@ -10855,10 +10871,10 @@
         <v>66</v>
       </c>
       <c r="E538" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="539" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>2</v>
       </c>
@@ -10872,10 +10888,10 @@
         <v>66</v>
       </c>
       <c r="E539" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="540" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>2</v>
       </c>
@@ -10889,10 +10905,10 @@
         <v>66</v>
       </c>
       <c r="E540" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="541" spans="1:5">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>2</v>
       </c>
@@ -10906,10 +10922,10 @@
         <v>66</v>
       </c>
       <c r="E541" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="542" spans="1:5">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>2</v>
       </c>
@@ -10923,10 +10939,10 @@
         <v>66</v>
       </c>
       <c r="E542" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="543" spans="1:5">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>2</v>
       </c>
@@ -10940,10 +10956,10 @@
         <v>66</v>
       </c>
       <c r="E543" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="544" spans="1:5">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>2</v>
       </c>
@@ -10957,10 +10973,10 @@
         <v>66</v>
       </c>
       <c r="E544" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="545" spans="1:5">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>2</v>
       </c>
@@ -10974,10 +10990,10 @@
         <v>66</v>
       </c>
       <c r="E545" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="546" spans="1:5">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>2</v>
       </c>
@@ -10991,10 +11007,10 @@
         <v>66</v>
       </c>
       <c r="E546" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="547" spans="1:5">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>2</v>
       </c>
@@ -11008,10 +11024,10 @@
         <v>66</v>
       </c>
       <c r="E547" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="548" spans="1:5">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>2</v>
       </c>
@@ -11025,10 +11041,10 @@
         <v>66</v>
       </c>
       <c r="E548" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="549" spans="1:5">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>2</v>
       </c>
@@ -11042,10 +11058,10 @@
         <v>66</v>
       </c>
       <c r="E549" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="550" spans="1:5">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>2</v>
       </c>
@@ -11059,10 +11075,10 @@
         <v>66</v>
       </c>
       <c r="E550" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="551" spans="1:5">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>2</v>
       </c>
@@ -11076,10 +11092,10 @@
         <v>66</v>
       </c>
       <c r="E551" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="552" spans="1:5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>2</v>
       </c>
@@ -11093,10 +11109,10 @@
         <v>66</v>
       </c>
       <c r="E552" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="553" spans="1:5">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>2</v>
       </c>
@@ -11110,10 +11126,10 @@
         <v>68</v>
       </c>
       <c r="E553" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="554" spans="1:5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>2</v>
       </c>
@@ -11127,10 +11143,10 @@
         <v>68</v>
       </c>
       <c r="E554" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="555" spans="1:5">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>2</v>
       </c>
@@ -11144,10 +11160,10 @@
         <v>68</v>
       </c>
       <c r="E555" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="556" spans="1:5">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>2</v>
       </c>
@@ -11161,7 +11177,7 @@
         <v>68</v>
       </c>
       <c r="E556" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
